--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFB5DE-E7F6-4609-A9C9-C5A3B1A62841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0.52139446</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.48137676</v>
+        <v>0.48137676000000001</v>
       </c>
       <c r="G3">
-        <v>0.51862324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.51862324000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -482,13 +500,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4804962</v>
+        <v>0.48049619999999998</v>
       </c>
       <c r="G4">
-        <v>0.5195038000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.51950380000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -505,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.47764606</v>
+        <v>0.47764605999999998</v>
       </c>
       <c r="G5">
-        <v>0.52235394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.52235394000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -528,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4898299</v>
+        <v>0.48982989999999998</v>
       </c>
       <c r="G6">
-        <v>0.5101701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.51017009999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -551,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4810484</v>
+        <v>0.48104839999999999</v>
       </c>
       <c r="G7">
-        <v>0.5189516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.51895159999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0.51329384</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -597,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.4972303</v>
+        <v>0.49723030000000001</v>
       </c>
       <c r="G9">
-        <v>0.5027697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.50276969999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -620,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4764614</v>
+        <v>0.47646139999999998</v>
       </c>
       <c r="G10">
-        <v>0.5235386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.52353859999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -643,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.49142906</v>
+        <v>0.49142905999999997</v>
       </c>
       <c r="G11">
-        <v>0.5085709399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.50857093999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -666,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.49626747</v>
+        <v>0.49626746999999999</v>
       </c>
       <c r="G12">
-        <v>0.50373253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.50373252999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -689,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.50087578</v>
+        <v>0.50087577999999999</v>
       </c>
       <c r="G13">
-        <v>0.49912422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.49912422000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -712,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.48816933</v>
+        <v>0.48816933000000001</v>
       </c>
       <c r="G14">
-        <v>0.51183067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.51183067000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -735,13 +753,13 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.48680004</v>
+        <v>0.48680003999999999</v>
       </c>
       <c r="G15">
-        <v>0.51319996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.51319996000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -761,10 +779,10 @@
         <v>0.49116188</v>
       </c>
       <c r="G16">
-        <v>0.5088381199999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.50883811999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -787,7 +805,7 @@
         <v>0.50683296</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -804,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4874114</v>
+        <v>0.48741139999999999</v>
       </c>
       <c r="G18">
-        <v>0.5125885999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.51258859999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>0.52464104</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -850,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.4772308300000001</v>
+        <v>0.47723083000000011</v>
       </c>
       <c r="G20">
-        <v>0.52276917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.52276917000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -873,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.4932133</v>
+        <v>0.49321330000000002</v>
       </c>
       <c r="G21">
-        <v>0.5067866999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.50678669999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -896,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4971647</v>
+        <v>0.49716470000000001</v>
       </c>
       <c r="G22">
-        <v>0.5028353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.50283529999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -919,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.48818684</v>
+        <v>0.48818684000000001</v>
       </c>
       <c r="G23">
-        <v>0.51181316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.51181315999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -942,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4762716</v>
+        <v>0.47627160000000002</v>
       </c>
       <c r="G24">
-        <v>0.5237284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.52372839999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -965,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.48151123</v>
+        <v>0.48151123000000001</v>
       </c>
       <c r="G25">
-        <v>0.51848877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.51848877000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -988,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.48945213</v>
+        <v>0.48945212999999999</v>
       </c>
       <c r="G26">
-        <v>0.51054787</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.51054787000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1011,13 +1029,13 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.4886283</v>
+        <v>0.48862830000000002</v>
       </c>
       <c r="G27">
-        <v>0.5113717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.51137169999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1034,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.48772743</v>
+        <v>0.48772743000000002</v>
       </c>
       <c r="G28">
-        <v>0.51227257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.51227257000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1057,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.48792034</v>
+        <v>0.48792034000000001</v>
       </c>
       <c r="G29">
-        <v>0.5120796599999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.51207965999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1080,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.48632812</v>
+        <v>0.48632811999999997</v>
       </c>
       <c r="G30">
-        <v>0.51367188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.51367187999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>0.50293568</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1126,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.49453632</v>
+        <v>0.49453631999999997</v>
       </c>
       <c r="G32">
-        <v>0.50546368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.50546367999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.50196262</v>
+        <v>0.50196262000000003</v>
       </c>
       <c r="G33">
-        <v>0.49803738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.49803737999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1172,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0.49009605</v>
+        <v>0.49009605000000001</v>
       </c>
       <c r="G34">
-        <v>0.50990395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.50990394999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1195,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.4897537</v>
+        <v>0.48975370000000001</v>
       </c>
       <c r="G35">
-        <v>0.5102463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.51024630000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1221,10 +1239,10 @@
         <v>0.49845802</v>
       </c>
       <c r="G36">
-        <v>0.5015419800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.50154198000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1241,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.4795463</v>
+        <v>0.47954629999999998</v>
       </c>
       <c r="G37">
-        <v>0.5204537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.52045370000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1264,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0.49760006</v>
+        <v>0.49760006000000001</v>
       </c>
       <c r="G38">
-        <v>0.50239994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.50239993999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1287,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0.49931274</v>
+        <v>0.49931273999999998</v>
       </c>
       <c r="G39">
-        <v>0.50068726</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.50068725999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1310,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0.4895057</v>
+        <v>0.48950569999999999</v>
       </c>
       <c r="G40">
-        <v>0.5104943</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.51049429999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1333,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.49431286</v>
+        <v>0.49431286000000002</v>
       </c>
       <c r="G41">
-        <v>0.50568714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.50568714000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.4986248</v>
+        <v>0.49862479999999998</v>
       </c>
       <c r="G42">
-        <v>0.5013752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.50137520000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1379,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.50058357</v>
+        <v>0.50058356999999998</v>
       </c>
       <c r="G43">
-        <v>0.49941643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.49941643000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1402,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.50303013</v>
+        <v>0.50303012999999996</v>
       </c>
       <c r="G44">
-        <v>0.49696987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.49696986999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1425,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.50228336</v>
+        <v>0.50228335999999996</v>
       </c>
       <c r="G45">
-        <v>0.49771664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.49771663999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1448,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.49706993</v>
+        <v>0.49706992999999999</v>
       </c>
       <c r="G46">
-        <v>0.50293007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.50293007000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1471,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.49359306</v>
+        <v>0.49359305999999997</v>
       </c>
       <c r="G47">
-        <v>0.5064069400000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.50640694000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1494,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0.49164906</v>
+        <v>0.49164906000000003</v>
       </c>
       <c r="G48">
-        <v>0.50835094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.50835094000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.48813618</v>
+        <v>0.48813617999999998</v>
       </c>
       <c r="G49">
-        <v>0.51186382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.51186381999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>0.5045615</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1563,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.49408264</v>
+        <v>0.49408264000000002</v>
       </c>
       <c r="G51">
-        <v>0.50591736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.50591735999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0.49475883</v>
+        <v>0.49475882999999998</v>
       </c>
       <c r="G52">
-        <v>0.50524117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.50524117000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1609,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0.49446564</v>
+        <v>0.49446563999999998</v>
       </c>
       <c r="G53">
-        <v>0.50553436</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.50553435999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1632,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.49080387</v>
+        <v>0.49080386999999998</v>
       </c>
       <c r="G54">
-        <v>0.50919613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.50919612999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1655,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0.4971242</v>
+        <v>0.49712420000000002</v>
       </c>
       <c r="G55">
-        <v>0.5028758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.50287579999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0.50753693</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1701,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.48059887</v>
+        <v>0.48059887000000001</v>
       </c>
       <c r="G57">
-        <v>0.51940113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.51940112999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1724,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.4664327</v>
+        <v>0.46643269999999998</v>
       </c>
       <c r="G58">
-        <v>0.5335673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.53356729999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1747,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.4566331</v>
+        <v>0.45663310000000001</v>
       </c>
       <c r="G59">
-        <v>0.5433669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.54336689999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1770,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0.49133945</v>
+        <v>0.49133945000000001</v>
       </c>
       <c r="G60">
-        <v>0.50866055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.50866054999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1793,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.49516644</v>
+        <v>0.49516643999999999</v>
       </c>
       <c r="G61">
-        <v>0.50483356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.50483356000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>0.52286674</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1839,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.48389</v>
+        <v>0.48388999999999999</v>
       </c>
       <c r="G63">
-        <v>0.51611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.51610999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1862,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.4959436</v>
+        <v>0.49594359999999998</v>
       </c>
       <c r="G64">
-        <v>0.5040564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.50405639999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1885,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0.499796</v>
+        <v>0.49979600000000002</v>
       </c>
       <c r="G65">
-        <v>0.500204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.50020399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1908,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.4934038000000001</v>
+        <v>0.49340380000000011</v>
       </c>
       <c r="G66">
-        <v>0.5065961999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.50659619999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1931,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.49266308</v>
+        <v>0.49266307999999998</v>
       </c>
       <c r="G67">
-        <v>0.50733692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.50733691999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1954,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0.47094887</v>
+        <v>0.47094887000000002</v>
       </c>
       <c r="G68">
-        <v>0.52905113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.52905113000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1977,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.47079468</v>
+        <v>0.47079468000000002</v>
       </c>
       <c r="G69">
-        <v>0.52920532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.52920531999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2000,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.48295097</v>
+        <v>0.48295096999999998</v>
       </c>
       <c r="G70">
-        <v>0.51704903</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.51704903000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2023,13 +2041,13 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0.48584785</v>
+        <v>0.48584785000000003</v>
       </c>
       <c r="G71">
-        <v>0.51415215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.51415215000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2046,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>0.48997887</v>
+        <v>0.48997887000000001</v>
       </c>
       <c r="G72">
-        <v>0.51002113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.51002113000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0.5050521</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2092,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0.4936909</v>
+        <v>0.49369089999999999</v>
       </c>
       <c r="G74">
-        <v>0.5063091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.50630909999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2118,10 +2136,10 @@
         <v>0.49518192</v>
       </c>
       <c r="G75">
-        <v>0.5048180800000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.50481808000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2138,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.49311546</v>
+        <v>0.49311546000000001</v>
       </c>
       <c r="G76">
-        <v>0.5068845400000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.50688454000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2161,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.49777306</v>
+        <v>0.49777305999999999</v>
       </c>
       <c r="G77">
-        <v>0.50222694</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.50222694000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2184,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0.4875306</v>
+        <v>0.48753059999999998</v>
       </c>
       <c r="G78">
-        <v>0.5124694000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.51246940000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2207,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>0.49532036</v>
+        <v>0.49532036000000002</v>
       </c>
       <c r="G79">
-        <v>0.50467964</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.50467963999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2230,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0.4856848</v>
+        <v>0.48568480000000003</v>
       </c>
       <c r="G80">
-        <v>0.5143152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.51431519999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2253,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.47440845</v>
+        <v>0.47440844999999998</v>
       </c>
       <c r="G81">
-        <v>0.52559155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.52559155000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2276,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0.49260933</v>
+        <v>0.49260933000000001</v>
       </c>
       <c r="G82">
-        <v>0.5073906699999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.50739066999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2299,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0.5001817</v>
+        <v>0.50018169999999995</v>
       </c>
       <c r="G83">
-        <v>0.4998183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.49981829999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2322,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0.48814644</v>
+        <v>0.48814644000000001</v>
       </c>
       <c r="G84">
-        <v>0.51185356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.51185356000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2345,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.49265602</v>
+        <v>0.49265601999999997</v>
       </c>
       <c r="G85">
-        <v>0.50734398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.50734398000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>0.51181705</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2391,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0.49537426</v>
+        <v>0.49537426000000001</v>
       </c>
       <c r="G87">
-        <v>0.5046257399999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.50462573999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0.50202183</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2437,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0.46590557</v>
+        <v>0.46590556999999999</v>
       </c>
       <c r="G89">
-        <v>0.53409443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.53409443000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2460,13 +2478,13 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0.4866262</v>
+        <v>0.48662620000000001</v>
       </c>
       <c r="G90">
-        <v>0.5133738</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.51337379999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2486,10 +2504,10 @@
         <v>0.48375847</v>
       </c>
       <c r="G91">
-        <v>0.5162415299999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.51624152999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2506,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.49292526</v>
+        <v>0.49292525999999998</v>
       </c>
       <c r="G92">
-        <v>0.50707474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.50707473999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2529,13 +2547,13 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>0.4980536699999999</v>
+        <v>0.49805366999999989</v>
       </c>
       <c r="G93">
         <v>0.50194633</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2552,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0.48744576</v>
+        <v>0.48744576000000001</v>
       </c>
       <c r="G94">
-        <v>0.5125542399999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.51255423999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2575,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.49454918</v>
+        <v>0.49454917999999998</v>
       </c>
       <c r="G95">
-        <v>0.50545082</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.50545081999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2598,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.4960898</v>
+        <v>0.49608980000000003</v>
       </c>
       <c r="G96">
-        <v>0.5039102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.50391019999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2621,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.4966317</v>
+        <v>0.49663170000000001</v>
       </c>
       <c r="G97">
-        <v>0.5033683</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.50336829999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2644,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.47154915</v>
+        <v>0.47154914999999997</v>
       </c>
       <c r="G98">
-        <v>0.52845085</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.52845085000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2667,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0.49438396</v>
+        <v>0.49438396000000001</v>
       </c>
       <c r="G99">
-        <v>0.50561604</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.50561604000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2690,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.49896828</v>
+        <v>0.49896827999999999</v>
       </c>
       <c r="G100">
-        <v>0.50103172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.50103171999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2713,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.48848537</v>
+        <v>0.48848536999999997</v>
       </c>
       <c r="G101">
-        <v>0.51151463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.51151462999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2736,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>0.49475834</v>
+        <v>0.49475834000000002</v>
       </c>
       <c r="G102">
-        <v>0.50524166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.50524166000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0.49733707</v>
+        <v>0.49733706999999999</v>
       </c>
       <c r="G103">
-        <v>0.50266293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.50266292999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2785,10 +2803,10 @@
         <v>0.49156273</v>
       </c>
       <c r="G104">
-        <v>0.5084372700000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>0.50843727000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2805,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0.4973579</v>
+        <v>0.49735790000000002</v>
       </c>
       <c r="G105">
-        <v>0.5026421</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>0.50264209999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2828,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.50057766</v>
+        <v>0.50057766000000004</v>
       </c>
       <c r="G106">
-        <v>0.49942234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>0.49942234000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2851,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0.49998627</v>
+        <v>0.49998627000000001</v>
       </c>
       <c r="G107">
-        <v>0.50001373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0.50001373000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2874,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0.4979168</v>
+        <v>0.49791679999999999</v>
       </c>
       <c r="G108">
-        <v>0.5020832</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>0.50208319999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.4850395</v>
+        <v>0.48503950000000001</v>
       </c>
       <c r="G109">
-        <v>0.5149604999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.51496049999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>0.51035206</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2943,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0.49651142</v>
+        <v>0.49651141999999998</v>
       </c>
       <c r="G111">
-        <v>0.50348858</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>0.50348857999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2966,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0.49516075</v>
+        <v>0.49516074999999998</v>
       </c>
       <c r="G112">
-        <v>0.50483925</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>0.50483924999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2989,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0.4945794999999999</v>
+        <v>0.49457949999999989</v>
       </c>
       <c r="G113">
-        <v>0.5054205000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>0.50542050000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3012,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.4959276</v>
+        <v>0.49592760000000002</v>
       </c>
       <c r="G114">
-        <v>0.5040724</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>0.50407239999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3038,10 +3056,10 @@
         <v>0.48900673</v>
       </c>
       <c r="G115">
-        <v>0.5109932700000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>0.51099327000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3058,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.49713463</v>
+        <v>0.49713463000000002</v>
       </c>
       <c r="G116">
-        <v>0.50286537</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>0.50286536999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.4920462</v>
+        <v>0.49204619999999999</v>
       </c>
       <c r="G117">
-        <v>0.5079538</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.50795380000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.49966335</v>
+        <v>0.49966335000000001</v>
       </c>
       <c r="G118">
-        <v>0.5003366499999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.50033664999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.47357502</v>
+        <v>0.47357502000000001</v>
       </c>
       <c r="G119">
-        <v>0.52642498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.52642498000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3153,10 +3171,10 @@
         <v>0.47299416</v>
       </c>
       <c r="G120">
-        <v>0.5270058399999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>0.52700583999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3173,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>0.48697895</v>
+        <v>0.48697895000000002</v>
       </c>
       <c r="G121">
-        <v>0.51302105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>0.51302104999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3196,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0.4963753</v>
+        <v>0.49637530000000002</v>
       </c>
       <c r="G122">
-        <v>0.5036247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>0.50362470000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.49766922</v>
+        <v>0.49766922000000002</v>
       </c>
       <c r="G123">
-        <v>0.50233078</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.50233077999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3242,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.4997821</v>
+        <v>0.49978210000000001</v>
       </c>
       <c r="G124">
-        <v>0.5002179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>0.50021789999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3265,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.4923927</v>
+        <v>0.49239270000000002</v>
       </c>
       <c r="G125">
-        <v>0.5076073</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>0.50760729999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3288,13 +3306,13 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>0.5051348999999999</v>
+        <v>0.50513489999999994</v>
       </c>
       <c r="G126">
         <v>0.4948651</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0.4989798</v>
+        <v>0.49897979999999997</v>
       </c>
       <c r="G127">
-        <v>0.5010202</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.50102020000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0.50814903</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3357,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0.4824624</v>
+        <v>0.48246240000000001</v>
       </c>
       <c r="G129">
-        <v>0.5175376</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>0.51753760000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.50111458</v>
+        <v>0.50111457999999998</v>
       </c>
       <c r="G130">
-        <v>0.49888542</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.49888542000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3403,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.4927635</v>
+        <v>0.49276350000000002</v>
       </c>
       <c r="G131">
-        <v>0.5072365</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>0.50723649999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3426,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0.48297718</v>
+        <v>0.48297718000000001</v>
       </c>
       <c r="G132">
-        <v>0.51702282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>0.51702281999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3449,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>0.48145477</v>
+        <v>0.48145476999999998</v>
       </c>
       <c r="G133">
-        <v>0.51854523</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>0.51854522999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3472,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.4960569</v>
+        <v>0.49605690000000002</v>
       </c>
       <c r="G134">
-        <v>0.5039431</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>0.50394309999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3495,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>0.5038407</v>
+        <v>0.50384070000000003</v>
       </c>
       <c r="G135">
-        <v>0.4961593</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>0.49615930000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3518,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>0.4993396</v>
+        <v>0.49933959999999999</v>
       </c>
       <c r="G136">
-        <v>0.5006604</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>0.50066040000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3541,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>0.49106045</v>
+        <v>0.49106044999999998</v>
       </c>
       <c r="G137">
-        <v>0.50893955</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>0.50893955000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3564,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0.49901875</v>
+        <v>0.49901875000000001</v>
       </c>
       <c r="G138">
-        <v>0.50098125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>0.50098125000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3587,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0.49018837</v>
+        <v>0.49018836999999998</v>
       </c>
       <c r="G139">
-        <v>0.5098116300000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>0.50981163000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3610,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0.48093273</v>
+        <v>0.48093272999999997</v>
       </c>
       <c r="G140">
-        <v>0.51906727</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>0.51906726999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3633,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0.4994399</v>
+        <v>0.49943989999999999</v>
       </c>
       <c r="G141">
-        <v>0.5005601</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>0.50056009999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3656,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0.49796318</v>
+        <v>0.49796318000000001</v>
       </c>
       <c r="G142">
-        <v>0.5020368200000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>0.50203682000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3679,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0.4973371</v>
+        <v>0.49733709999999998</v>
       </c>
       <c r="G143">
-        <v>0.5026629</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>0.50266290000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.48730736</v>
+        <v>0.48730736000000002</v>
       </c>
       <c r="G144">
-        <v>0.51269264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>0.51269264000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0.4977944</v>
+        <v>0.49779440000000003</v>
       </c>
       <c r="G145">
-        <v>0.5022056</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.50220560000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3748,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>0.5023621</v>
+        <v>0.50236210000000003</v>
       </c>
       <c r="G146">
-        <v>0.4976379</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>0.49763790000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3771,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5007087</v>
+        <v>0.50070870000000001</v>
       </c>
       <c r="G147">
-        <v>0.4992913</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>0.49929129999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3794,13 +3812,13 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0.49951046</v>
+        <v>0.49951045999999999</v>
       </c>
       <c r="G148">
-        <v>0.50048954</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>0.50048954000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3817,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>0.5015748</v>
+        <v>0.50157479999999999</v>
       </c>
       <c r="G149">
-        <v>0.4984252</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>0.49842520000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0.5047939</v>
+        <v>0.50479390000000002</v>
       </c>
       <c r="G150">
-        <v>0.4952061</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.49520609999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3863,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0.4936330800000001</v>
+        <v>0.49363308000000011</v>
       </c>
       <c r="G151">
-        <v>0.5063669199999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>0.50636691999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3886,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>0.4926963</v>
+        <v>0.49269629999999998</v>
       </c>
       <c r="G152">
-        <v>0.5073037</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>0.50730370000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0.49971394</v>
+        <v>0.49971394000000002</v>
       </c>
       <c r="G153">
-        <v>0.5002860600000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>0.50028606000000009</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.4961615</v>
+        <v>0.49616149999999998</v>
       </c>
       <c r="G154">
-        <v>0.5038385000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>0.50383850000000008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.5018505</v>
+        <v>0.50185049999999998</v>
       </c>
       <c r="G155">
-        <v>0.4981495</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>0.49814950000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3978,13 +3996,13 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>0.49889595</v>
+        <v>0.49889594999999998</v>
       </c>
       <c r="G156">
-        <v>0.50110405</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>0.50110405000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4001,13 +4019,13 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>0.4980607</v>
+        <v>0.49806070000000002</v>
       </c>
       <c r="G157">
-        <v>0.5019393</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>0.50193929999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0.5025060299999999</v>
+        <v>0.50250602999999994</v>
       </c>
       <c r="G158">
-        <v>0.49749397</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0.49749397000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4047,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.50212837</v>
+        <v>0.50212836999999999</v>
       </c>
       <c r="G159">
-        <v>0.49787163</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>0.49787163000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4070,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0.5048735400000001</v>
+        <v>0.50487354000000007</v>
       </c>
       <c r="G160">
-        <v>0.49512646</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>0.49512645999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4093,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0.49887318</v>
+        <v>0.49887318000000003</v>
       </c>
       <c r="G161">
-        <v>0.50112682</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>0.50112681999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4116,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0.5001046</v>
+        <v>0.50010460000000001</v>
       </c>
       <c r="G162">
-        <v>0.4998954</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>0.49989539999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4139,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.5015158000000001</v>
+        <v>0.50151580000000007</v>
       </c>
       <c r="G163">
-        <v>0.4984842</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>0.49848419999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4162,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>0.49943695</v>
+        <v>0.49943694999999999</v>
       </c>
       <c r="G164">
-        <v>0.50056305</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>0.50056305000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4185,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>0.49895046</v>
+        <v>0.49895045999999998</v>
       </c>
       <c r="G165">
-        <v>0.50104954</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>0.50104954000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0.50372154</v>
+        <v>0.50372154000000002</v>
       </c>
       <c r="G166">
-        <v>0.49627846</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>0.49627845999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4231,13 +4249,13 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>0.50162758</v>
+        <v>0.50162757999999996</v>
       </c>
       <c r="G167">
-        <v>0.49837242</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>0.49837241999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>0.50090687</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4277,13 +4295,13 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>0.50191765</v>
+        <v>0.50191764999999999</v>
       </c>
       <c r="G169">
-        <v>0.49808235</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>0.49808235000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4300,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0.502853</v>
+        <v>0.50285299999999999</v>
       </c>
       <c r="G170">
-        <v>0.497147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>0.49714700000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>0.4979903</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4346,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5003837999999999</v>
+        <v>0.50038379999999993</v>
       </c>
       <c r="G172">
-        <v>0.4996162</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>0.49961620000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4369,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0.48249958</v>
+        <v>0.48249957999999998</v>
       </c>
       <c r="G173">
-        <v>0.51750042</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>0.51750041999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0.50135506</v>
+        <v>0.50135505999999996</v>
       </c>
       <c r="G174">
-        <v>0.49864494</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.49864493999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4415,13 +4433,13 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0.49757324</v>
+        <v>0.49757324000000003</v>
       </c>
       <c r="G175">
-        <v>0.5024267600000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>0.50242676000000008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0.4998994</v>
+        <v>0.49989939999999999</v>
       </c>
       <c r="G176">
-        <v>0.5001006</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.50010060000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4461,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>0.49831867</v>
+        <v>0.49831867000000002</v>
       </c>
       <c r="G177">
-        <v>0.5016813299999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>0.50168132999999993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4484,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>0.49777626</v>
+        <v>0.49777626000000003</v>
       </c>
       <c r="G178">
-        <v>0.50222374</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>0.50222374000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4510,10 +4528,10 @@
         <v>0.4998187</v>
       </c>
       <c r="G179">
-        <v>0.5001812999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>0.50018129999999994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>0.49909576</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4553,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>0.48906963</v>
+        <v>0.48906962999999998</v>
       </c>
       <c r="G181">
-        <v>0.5109303700000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>0.51093037000000008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4576,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>0.50326244</v>
+        <v>0.50326243999999998</v>
       </c>
       <c r="G182">
-        <v>0.49673756</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>0.49673756000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4599,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>0.49992085</v>
+        <v>0.49992085000000003</v>
       </c>
       <c r="G183">
-        <v>0.5000791499999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>0.50007914999999992</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4622,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>0.49849327</v>
+        <v>0.49849326999999999</v>
       </c>
       <c r="G184">
-        <v>0.50150673</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>0.50150673000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4645,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0.49827038</v>
+        <v>0.49827038000000001</v>
       </c>
       <c r="G185">
-        <v>0.50172962</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>0.50172961999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4668,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>0.49430107</v>
+        <v>0.49430107000000001</v>
       </c>
       <c r="G186">
-        <v>0.50569893</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>0.50569892999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4691,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0.4932364</v>
+        <v>0.49323640000000002</v>
       </c>
       <c r="G187">
-        <v>0.5067636</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>0.50676359999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0.4985676</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4737,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0.50444157</v>
+        <v>0.50444157000000001</v>
       </c>
       <c r="G189">
-        <v>0.49555843</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>0.49555842999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4760,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>0.50364433</v>
+        <v>0.50364432999999997</v>
       </c>
       <c r="G190">
-        <v>0.49635567</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>0.49635567000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4783,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>0.50295475</v>
+        <v>0.50295475000000001</v>
       </c>
       <c r="G191">
-        <v>0.49704525</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>0.49704524999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4806,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0.49231884</v>
+        <v>0.49231883999999998</v>
       </c>
       <c r="G192">
-        <v>0.50768116</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>0.50768115999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4829,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0.5036646300000001</v>
+        <v>0.50366463000000006</v>
       </c>
       <c r="G193">
-        <v>0.4963353699999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>0.49633536999999989</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4852,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0.5066194500000001</v>
+        <v>0.50661945000000008</v>
       </c>
       <c r="G194">
-        <v>0.49338055</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>0.49338054999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4875,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0.50573864</v>
+        <v>0.50573864000000002</v>
       </c>
       <c r="G195">
-        <v>0.49426136</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>0.49426135999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>0.50105427</v>
+        <v>0.50105427000000002</v>
       </c>
       <c r="G196">
-        <v>0.49894573</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.49894572999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>0.49547447</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4944,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5017298499999999</v>
+        <v>0.50172984999999992</v>
       </c>
       <c r="G198">
-        <v>0.49827015</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>0.49827015000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>0.5015270199999999</v>
+        <v>0.50152701999999993</v>
       </c>
       <c r="G199">
-        <v>0.49847298</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>0.49847298000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4990,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>0.5016319699999999</v>
+        <v>0.50163196999999993</v>
       </c>
       <c r="G200">
-        <v>0.49836803</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>0.49836803000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.5011725</v>
+        <v>0.50117250000000002</v>
       </c>
       <c r="G201">
-        <v>0.4988275</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.49882749999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5036,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0.5041531</v>
+        <v>0.50415310000000002</v>
       </c>
       <c r="G202">
-        <v>0.4958469</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>0.49584689999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5059,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>0.5006643</v>
+        <v>0.50066429999999995</v>
       </c>
       <c r="G203">
-        <v>0.4993357</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>0.49933569999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.4975338</v>
+        <v>0.49753380000000003</v>
       </c>
       <c r="G204">
-        <v>0.5024662</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.50246619999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0.4980128</v>
+        <v>0.49801279999999998</v>
       </c>
       <c r="G205">
-        <v>0.5019872</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>0.50198719999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5128,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>0.492747</v>
+        <v>0.49274699999999999</v>
       </c>
       <c r="G206">
-        <v>0.507253</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>0.50725299999999995</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5151,13 +5169,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>0.5048839000000001</v>
+        <v>0.50488390000000005</v>
       </c>
       <c r="G207">
-        <v>0.4951160999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>0.49511609999999989</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5174,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>0.5058704000000001</v>
+        <v>0.50587040000000005</v>
       </c>
       <c r="G208">
         <v>0.4941296</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5197,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0.49459515</v>
+        <v>0.49459514999999998</v>
       </c>
       <c r="G209">
-        <v>0.50540485</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>0.50540485000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5220,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0.5002761999999999</v>
+        <v>0.50027619999999995</v>
       </c>
       <c r="G210">
         <v>0.4997238</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5243,13 +5261,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>0.5013647999999999</v>
+        <v>0.50136479999999994</v>
       </c>
       <c r="G211">
         <v>0.4986352</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0.49553627</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5289,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>0.4999823</v>
+        <v>0.49998229999999999</v>
       </c>
       <c r="G213">
-        <v>0.5000177</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>0.50001770000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5312,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>0.49605717</v>
+        <v>0.49605716999999999</v>
       </c>
       <c r="G214">
-        <v>0.5039428300000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>0.50394283000000006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5335,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0.49715637</v>
+        <v>0.49715637000000001</v>
       </c>
       <c r="G215">
-        <v>0.50284363</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>0.50284362999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5358,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>0.49347496</v>
+        <v>0.49347496000000002</v>
       </c>
       <c r="G216">
-        <v>0.50652504</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>0.50652503999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5381,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0.45870697</v>
+        <v>0.45870696999999999</v>
       </c>
       <c r="G217">
-        <v>0.54129303</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>0.54129302999999995</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5404,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0.4889419</v>
+        <v>0.48894189999999998</v>
       </c>
       <c r="G218">
-        <v>0.5110581</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>0.51105809999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5427,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0.47623554</v>
+        <v>0.47623554000000001</v>
       </c>
       <c r="G219">
-        <v>0.52376446</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>0.52376445999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5453,10 +5471,10 @@
         <v>0.4861338</v>
       </c>
       <c r="G220">
-        <v>0.5138662000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>0.51386620000000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5473,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0.49406593</v>
+        <v>0.49406592999999999</v>
       </c>
       <c r="G221">
-        <v>0.50593407</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.50593407000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5496,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>0.4943464</v>
+        <v>0.49434640000000002</v>
       </c>
       <c r="G222">
-        <v>0.5056536</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>0.50565360000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0.4989155199999999</v>
+        <v>0.49891551999999989</v>
       </c>
       <c r="G223">
-        <v>0.5010844800000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.50108448000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5542,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0.4940748</v>
+        <v>0.49407479999999998</v>
       </c>
       <c r="G224">
-        <v>0.5059252</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>0.50592519999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5565,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>0.4994683</v>
+        <v>0.49946829999999998</v>
       </c>
       <c r="G225">
-        <v>0.5005317</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>0.50053170000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5588,13 +5606,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>0.4998106</v>
+        <v>0.49981059999999999</v>
       </c>
       <c r="G226">
-        <v>0.5001894</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>0.50018940000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5611,13 +5629,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>0.5002539</v>
+        <v>0.50025390000000003</v>
       </c>
       <c r="G227">
-        <v>0.4997461</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>0.49974610000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5634,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>0.5040759299999999</v>
+        <v>0.50407592999999995</v>
       </c>
       <c r="G228">
-        <v>0.49592407</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>0.49592406999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5657,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>0.5017545299999999</v>
+        <v>0.50175452999999992</v>
       </c>
       <c r="G229">
-        <v>0.49824547</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>0.49824547000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5680,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>0.5010441999999999</v>
+        <v>0.50104419999999994</v>
       </c>
       <c r="G230">
         <v>0.4989558</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5703,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>0.50011726</v>
+        <v>0.50011726000000001</v>
       </c>
       <c r="G231">
-        <v>0.49988274</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>0.49988273999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5726,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>0.5023357000000001</v>
+        <v>0.50233570000000005</v>
       </c>
       <c r="G232">
         <v>0.4976643</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5749,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>0.5021697000000001</v>
+        <v>0.50216970000000005</v>
       </c>
       <c r="G233">
-        <v>0.4978302999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>0.49783029999999989</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5772,13 +5790,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>0.5007797</v>
+        <v>0.50077970000000005</v>
       </c>
       <c r="G234">
-        <v>0.4992203</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>0.49922030000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5795,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0.5014117</v>
+        <v>0.50141170000000002</v>
       </c>
       <c r="G235">
-        <v>0.4985883</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>0.49858829999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5818,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>0.50093258</v>
+        <v>0.50093257999999996</v>
       </c>
       <c r="G236">
-        <v>0.49906742</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>0.49906741999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>0.49878727</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5864,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>0.5027865</v>
+        <v>0.50278650000000003</v>
       </c>
       <c r="G238">
-        <v>0.4972135</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.49721349999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5887,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>0.50252266</v>
+        <v>0.50252266000000001</v>
       </c>
       <c r="G239">
-        <v>0.49747734</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>0.49747733999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5910,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>0.4945392</v>
+        <v>0.49453920000000001</v>
       </c>
       <c r="G240">
-        <v>0.5054608</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>0.50546080000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5933,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>0.4945634</v>
+        <v>0.49456339999999999</v>
       </c>
       <c r="G241">
-        <v>0.5054366</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>0.50543660000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5956,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>0.49513874</v>
+        <v>0.49513874000000002</v>
       </c>
       <c r="G242">
-        <v>0.50486126</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>0.50486125999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5979,13 +5997,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>0.49798332</v>
+        <v>0.49798332000000001</v>
       </c>
       <c r="G243">
-        <v>0.50201668</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>0.50201667999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6002,13 +6020,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>0.49868797</v>
+        <v>0.49868796999999998</v>
       </c>
       <c r="G244">
-        <v>0.50131203</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>0.50131203000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6025,13 +6043,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>0.49755882</v>
+        <v>0.49755882000000001</v>
       </c>
       <c r="G245">
-        <v>0.50244118</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>0.50244118000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6048,13 +6066,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>0.50101494</v>
+        <v>0.50101494000000002</v>
       </c>
       <c r="G246">
-        <v>0.49898506</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>0.49898505999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>0.5008794000000001</v>
+        <v>0.50087940000000009</v>
       </c>
       <c r="G247">
-        <v>0.4991206</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.49912060000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6094,13 +6112,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>0.50081825</v>
+        <v>0.50081825000000002</v>
       </c>
       <c r="G248">
-        <v>0.49918175</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>0.49918174999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6117,13 +6135,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>0.4961567</v>
+        <v>0.49615670000000001</v>
       </c>
       <c r="G249">
-        <v>0.5038433</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>0.50384329999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6140,13 +6158,13 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>0.49643486</v>
+        <v>0.49643485999999998</v>
       </c>
       <c r="G250">
-        <v>0.50356514</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>0.50356513999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6163,13 +6181,13 @@
         <v>1</v>
       </c>
       <c r="F251">
-        <v>0.496732</v>
+        <v>0.49673200000000001</v>
       </c>
       <c r="G251">
-        <v>0.5032679999999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.50326799999999994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6186,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="F252">
-        <v>0.5003933</v>
+        <v>0.50039330000000004</v>
       </c>
       <c r="G252">
-        <v>0.4996067</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>0.49960670000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>0.5008388500000001</v>
+        <v>0.50083885000000006</v>
       </c>
       <c r="G253">
         <v>0.49916115</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6232,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0.49655807</v>
+        <v>0.49655807000000002</v>
       </c>
       <c r="G254">
-        <v>0.5034419299999999</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>0.50344192999999993</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6255,13 +6273,13 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>0.5017869</v>
+        <v>0.50178690000000004</v>
       </c>
       <c r="G255">
-        <v>0.4982131</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>0.49821310000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.49527386</v>
+        <v>0.49527386000000001</v>
       </c>
       <c r="G256">
-        <v>0.50472614</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.50472614000000005</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>0.49834816</v>
+        <v>0.49834815999999998</v>
       </c>
       <c r="G257">
-        <v>0.5016518400000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0.50165184000000007</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6324,13 +6342,13 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>0.5010680399999999</v>
+        <v>0.50106803999999994</v>
       </c>
       <c r="G258">
-        <v>0.49893196</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>0.49893196000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6347,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="F259">
-        <v>0.49948277</v>
+        <v>0.49948277000000002</v>
       </c>
       <c r="G259">
-        <v>0.50051723</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>0.50051723000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6370,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="F260">
-        <v>0.4999761</v>
+        <v>0.49997609999999998</v>
       </c>
       <c r="G260">
-        <v>0.5000239</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>0.50002389999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6393,13 +6411,13 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0.50082066</v>
+        <v>0.50082066000000003</v>
       </c>
       <c r="G261">
-        <v>0.49917934</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>0.49917934000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6416,13 +6434,13 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>0.5025173000000001</v>
+        <v>0.50251730000000006</v>
       </c>
       <c r="G262">
         <v>0.4974827</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6439,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>0.5041544999999999</v>
+        <v>0.50415449999999995</v>
       </c>
       <c r="G263">
-        <v>0.4958455</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>0.49584549999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6462,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>0.5032168</v>
+        <v>0.50321680000000002</v>
       </c>
       <c r="G264">
-        <v>0.4967832</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>0.49678319999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6485,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>0.50109856</v>
+        <v>0.50109855999999997</v>
       </c>
       <c r="G265">
-        <v>0.49890144</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>0.49890143999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6508,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="F266">
-        <v>0.5031114999999999</v>
+        <v>0.50311149999999993</v>
       </c>
       <c r="G266">
-        <v>0.4968885</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>0.49688850000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6531,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>0.50236694</v>
+        <v>0.50236694000000004</v>
       </c>
       <c r="G267">
-        <v>0.49763306</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>0.49763306000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6554,13 +6572,13 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <v>0.50215336</v>
+        <v>0.50215335999999999</v>
       </c>
       <c r="G268">
-        <v>0.49784664</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>0.49784664000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6583,7 +6601,7 @@
         <v>0.4986022</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6600,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>0.49769775</v>
+        <v>0.49769774999999999</v>
       </c>
       <c r="G270">
-        <v>0.50230225</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>0.50230224999999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6623,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0.50068123</v>
+        <v>0.50068122999999998</v>
       </c>
       <c r="G271">
-        <v>0.49931877</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>0.49931877000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6646,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>0.50495674</v>
+        <v>0.50495674000000002</v>
       </c>
       <c r="G272">
-        <v>0.49504326</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>0.49504325999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>0.4984075</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6692,13 +6710,13 @@
         <v>1</v>
       </c>
       <c r="F274">
-        <v>0.5038218</v>
+        <v>0.50382179999999999</v>
       </c>
       <c r="G274">
-        <v>0.4961782</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>0.49617820000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>0.49861305</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6738,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>0.502295</v>
+        <v>0.50229500000000005</v>
       </c>
       <c r="G276">
-        <v>0.497705</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>0.49770500000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6761,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="F277">
-        <v>0.50089546</v>
+        <v>0.50089545999999996</v>
       </c>
       <c r="G277">
-        <v>0.49910454</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+        <v>0.49910453999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6784,13 +6802,13 @@
         <v>1</v>
       </c>
       <c r="F278">
-        <v>0.5029602400000001</v>
+        <v>0.50296024000000006</v>
       </c>
       <c r="G278">
         <v>0.49703976</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6807,13 +6825,13 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <v>0.50233067</v>
+        <v>0.50233066999999998</v>
       </c>
       <c r="G279">
-        <v>0.49766933</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>0.49766933000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6830,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <v>0.500985</v>
+        <v>0.50098500000000001</v>
       </c>
       <c r="G280">
-        <v>0.499015</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>0.49901499999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6856,10 +6874,10 @@
         <v>0.495782</v>
       </c>
       <c r="G281">
-        <v>0.5042179999999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>0.50421799999999994</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>0.5018745</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0.5009281</v>
+        <v>0.50092809999999999</v>
       </c>
       <c r="G283">
-        <v>0.4990719</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>0.49907190000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6922,13 +6940,13 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <v>0.4939203</v>
+        <v>0.49392029999999998</v>
       </c>
       <c r="G284">
-        <v>0.5060797</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+        <v>0.50607970000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6945,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0.49960674</v>
+        <v>0.49960673999999999</v>
       </c>
       <c r="G285">
-        <v>0.5003932600000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>0.50039326000000006</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6968,13 +6986,13 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0.4902231</v>
+        <v>0.49022310000000002</v>
       </c>
       <c r="G286">
-        <v>0.5097769</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+        <v>0.50977689999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6991,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0.49760864</v>
+        <v>0.49760863999999999</v>
       </c>
       <c r="G287">
-        <v>0.5023913600000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+        <v>0.50239136000000006</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7014,13 +7032,13 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>0.4970359</v>
+        <v>0.49703589999999997</v>
       </c>
       <c r="G288">
-        <v>0.5029641</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>0.50296410000000003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7037,13 +7055,13 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>0.49792633</v>
+        <v>0.49792632999999997</v>
       </c>
       <c r="G289">
-        <v>0.50207367</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>0.50207367000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7060,13 +7078,13 @@
         <v>1</v>
       </c>
       <c r="F290">
-        <v>0.47837685</v>
+        <v>0.47837685000000002</v>
       </c>
       <c r="G290">
-        <v>0.52162315</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>0.52162315000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7083,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>0.49958824</v>
+        <v>0.49958824000000002</v>
       </c>
       <c r="G291">
-        <v>0.50041176</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>0.50041175999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7106,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>0.4963893</v>
+        <v>0.49638929999999998</v>
       </c>
       <c r="G292">
-        <v>0.5036107</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>0.50361069999999997</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7129,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0.497686</v>
+        <v>0.49768600000000002</v>
       </c>
       <c r="G293">
-        <v>0.502314</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>0.50231400000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7152,13 +7170,13 @@
         <v>1</v>
       </c>
       <c r="F294">
-        <v>0.49935753</v>
+        <v>0.49935752999999999</v>
       </c>
       <c r="G294">
-        <v>0.5006424700000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>0.50064247000000006</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>0.5015903500000001</v>
+        <v>0.50159035000000007</v>
       </c>
       <c r="G295">
-        <v>0.49840965</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.49840964999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.5015969</v>
+        <v>0.50159690000000001</v>
       </c>
       <c r="G296">
-        <v>0.4984031</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.49840309999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7221,13 +7239,13 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>0.4991519</v>
+        <v>0.49915189999999998</v>
       </c>
       <c r="G297">
-        <v>0.5008481</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>0.50084810000000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0.4993976</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7267,13 +7285,13 @@
         <v>1</v>
       </c>
       <c r="F299">
-        <v>0.49301197</v>
+        <v>0.49301197000000002</v>
       </c>
       <c r="G299">
-        <v>0.50698803</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>0.50698803000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7290,13 +7308,13 @@
         <v>0</v>
       </c>
       <c r="F300">
-        <v>0.50187416</v>
+        <v>0.50187415999999996</v>
       </c>
       <c r="G300">
-        <v>0.49812584</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>0.49812583999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7313,13 +7331,13 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>0.50026</v>
+        <v>0.50026000000000004</v>
       </c>
       <c r="G301">
-        <v>0.49974</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>0.49974000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>0.499807</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7359,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>0.50405487</v>
+        <v>0.50405487000000004</v>
       </c>
       <c r="G303">
-        <v>0.49594513</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>0.49594513000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7382,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>0.50382717</v>
+        <v>0.50382716999999999</v>
       </c>
       <c r="G304">
-        <v>0.49617283</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>0.49617283000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7405,13 +7423,13 @@
         <v>1</v>
       </c>
       <c r="F305">
-        <v>0.5005929600000001</v>
+        <v>0.50059296000000009</v>
       </c>
       <c r="G305">
-        <v>0.49940704</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>0.49940704000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7428,13 +7446,13 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>0.49836555</v>
+        <v>0.49836554999999999</v>
       </c>
       <c r="G306">
-        <v>0.5016344500000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>0.50163445000000007</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7451,13 +7469,13 @@
         <v>1</v>
       </c>
       <c r="F307">
-        <v>0.5015197</v>
+        <v>0.50151970000000001</v>
       </c>
       <c r="G307">
-        <v>0.4984803</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>0.49848029999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0.50232582</v>
+        <v>0.50232582000000003</v>
       </c>
       <c r="G308">
-        <v>0.49767418</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>0.49767418000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7497,13 +7515,13 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>0.5067921400000001</v>
+        <v>0.50679214000000006</v>
       </c>
       <c r="G309">
         <v>0.49320786</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7520,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>0.50104088</v>
+        <v>0.50104088000000002</v>
       </c>
       <c r="G310">
-        <v>0.49895912</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>0.49895911999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7543,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0.49568127</v>
+        <v>0.49568127000000001</v>
       </c>
       <c r="G311">
-        <v>0.50431873</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>0.50431873000000005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7566,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>0.47391247</v>
+        <v>0.47391246999999997</v>
       </c>
       <c r="G312">
-        <v>0.52608753</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>0.52608752999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7589,13 +7607,13 @@
         <v>1</v>
       </c>
       <c r="F313">
-        <v>0.48937843</v>
+        <v>0.48937842999999998</v>
       </c>
       <c r="G313">
-        <v>0.51062157</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>0.51062156999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7615,10 +7633,10 @@
         <v>0.48259773</v>
       </c>
       <c r="G314">
-        <v>0.5174022699999999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>0.51740226999999994</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7635,13 +7653,13 @@
         <v>1</v>
       </c>
       <c r="F315">
-        <v>0.49927002</v>
+        <v>0.49927001999999998</v>
       </c>
       <c r="G315">
-        <v>0.50072998</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+        <v>0.50072998000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7658,13 +7676,13 @@
         <v>0</v>
       </c>
       <c r="F316">
-        <v>0.50365463</v>
+        <v>0.50365462999999999</v>
       </c>
       <c r="G316">
-        <v>0.49634537</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>0.49634537000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7681,13 +7699,13 @@
         <v>0</v>
       </c>
       <c r="F317">
-        <v>0.49707485</v>
+        <v>0.49707485000000001</v>
       </c>
       <c r="G317">
-        <v>0.50292515</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+        <v>0.50292515000000004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7704,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="F318">
-        <v>0.48616325</v>
+        <v>0.48616324999999999</v>
       </c>
       <c r="G318">
-        <v>0.51383675</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>0.51383674999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7727,13 +7745,13 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0.4994347</v>
+        <v>0.49943470000000001</v>
       </c>
       <c r="G319">
-        <v>0.5005653</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>0.50056529999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>0.49898613</v>
+        <v>0.49898613000000003</v>
       </c>
       <c r="G320">
-        <v>0.50101387</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.50101386999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7773,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="F321">
-        <v>0.499514</v>
+        <v>0.49951400000000001</v>
       </c>
       <c r="G321">
-        <v>0.500486</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>0.50048599999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>0.4925209799999999</v>
+        <v>0.49252097999999989</v>
       </c>
       <c r="G322">
         <v>0.50747902</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>0</v>
       </c>
       <c r="F323">
-        <v>0.48765503</v>
+        <v>0.48765502999999999</v>
       </c>
       <c r="G323">
-        <v>0.51234497</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.51234497000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>0.5077758</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7865,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>0.49400795</v>
+        <v>0.49400794999999997</v>
       </c>
       <c r="G325">
-        <v>0.50599205</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>0.50599205000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="F326">
-        <v>0.48965508</v>
+        <v>0.48965508000000002</v>
       </c>
       <c r="G326">
-        <v>0.51034492</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.51034491999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7911,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0.4973271</v>
+        <v>0.49732710000000002</v>
       </c>
       <c r="G327">
-        <v>0.5026729</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>0.50267289999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>1</v>
       </c>
       <c r="F328">
-        <v>0.49249012</v>
+        <v>0.49249011999999998</v>
       </c>
       <c r="G328">
-        <v>0.50750988</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>0.50750987999999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7957,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="F329">
-        <v>0.4920073699999999</v>
+        <v>0.49200736999999989</v>
       </c>
       <c r="G329">
-        <v>0.5079926300000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+        <v>0.50799263000000006</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7980,13 +7998,13 @@
         <v>1</v>
       </c>
       <c r="F330">
-        <v>0.49285484</v>
+        <v>0.49285484000000002</v>
       </c>
       <c r="G330">
-        <v>0.50714516</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.50714515999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>1</v>
       </c>
       <c r="F331">
-        <v>0.4883857</v>
+        <v>0.48838569999999998</v>
       </c>
       <c r="G331">
-        <v>0.5116143000000001</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>0.51161430000000008</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8026,13 +8044,13 @@
         <v>1</v>
       </c>
       <c r="F332">
-        <v>0.48456474</v>
+        <v>0.48456473999999999</v>
       </c>
       <c r="G332">
-        <v>0.51543526</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
+        <v>0.51543525999999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8049,13 +8067,13 @@
         <v>1</v>
       </c>
       <c r="F333">
-        <v>0.491015</v>
+        <v>0.49101499999999998</v>
       </c>
       <c r="G333">
-        <v>0.508985</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+        <v>0.50898500000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>0.4945838</v>
+        <v>0.49458380000000002</v>
       </c>
       <c r="G334">
-        <v>0.5054162</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.50541619999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8095,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="F335">
-        <v>0.4956936</v>
+        <v>0.49569360000000001</v>
       </c>
       <c r="G335">
-        <v>0.5043063999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>0.50430639999999993</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="F336">
-        <v>0.48537994</v>
+        <v>0.48537994000000001</v>
       </c>
       <c r="G336">
-        <v>0.51462006</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>0.51462006000000005</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8141,13 +8159,13 @@
         <v>1</v>
       </c>
       <c r="F337">
-        <v>0.50138237</v>
+        <v>0.50138236999999997</v>
       </c>
       <c r="G337">
-        <v>0.49861763</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>0.49861762999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="F338">
-        <v>0.49788246</v>
+        <v>0.49788246000000003</v>
       </c>
       <c r="G338">
-        <v>0.50211754</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.50211753999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0.49475098</v>
+        <v>0.49475098000000001</v>
       </c>
       <c r="G339">
-        <v>0.5052490199999999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.50524901999999994</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8210,13 +8228,13 @@
         <v>1</v>
       </c>
       <c r="F340">
-        <v>0.49805542</v>
+        <v>0.49805542000000003</v>
       </c>
       <c r="G340">
-        <v>0.50194458</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>0.50194457999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8233,13 +8251,13 @@
         <v>1</v>
       </c>
       <c r="F341">
-        <v>0.49449574</v>
+        <v>0.49449574000000002</v>
       </c>
       <c r="G341">
-        <v>0.50550426</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>0.50550426000000004</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8256,13 +8274,13 @@
         <v>1</v>
       </c>
       <c r="F342">
-        <v>0.49689396</v>
+        <v>0.49689396000000002</v>
       </c>
       <c r="G342">
-        <v>0.50310604</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.50310604000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8279,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="F343">
-        <v>0.49977886</v>
+        <v>0.49977885999999999</v>
       </c>
       <c r="G343">
-        <v>0.5002211400000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.50022114000000006</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8302,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="F344">
-        <v>0.49732006</v>
+        <v>0.49732006000000001</v>
       </c>
       <c r="G344">
-        <v>0.50267994</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>0.50267994000000005</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="F345">
-        <v>0.497306</v>
+        <v>0.49730600000000003</v>
       </c>
       <c r="G345">
-        <v>0.502694</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.50269399999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="F346">
-        <v>0.49005154</v>
+        <v>0.49005154000000001</v>
       </c>
       <c r="G346">
-        <v>0.50994846</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>0.50994846000000005</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8371,13 +8389,13 @@
         <v>0</v>
       </c>
       <c r="F347">
-        <v>0.5006808</v>
+        <v>0.50068080000000004</v>
       </c>
       <c r="G347">
-        <v>0.4993192</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>0.49931920000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8397,10 +8415,10 @@
         <v>0.49811707</v>
       </c>
       <c r="G348">
-        <v>0.5018829300000001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+        <v>0.50188293000000006</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8417,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0.5018635</v>
+        <v>0.50186350000000002</v>
       </c>
       <c r="G349">
-        <v>0.4981365</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.49813649999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="F350">
-        <v>0.50247486</v>
+        <v>0.50247485999999997</v>
       </c>
       <c r="G350">
-        <v>0.49752514</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.49752513999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8463,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="F351">
-        <v>0.4990245</v>
+        <v>0.49902449999999998</v>
       </c>
       <c r="G351">
-        <v>0.5009755</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>0.50097550000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8486,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="F352">
-        <v>0.49308033</v>
+        <v>0.49308033000000001</v>
       </c>
       <c r="G352">
-        <v>0.5069196699999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>0.50691966999999993</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8509,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>0.49999207</v>
+        <v>0.49999207000000001</v>
       </c>
       <c r="G353">
-        <v>0.50000793</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>0.50000792999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>0.5103763</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8555,13 +8573,13 @@
         <v>1</v>
       </c>
       <c r="F355">
-        <v>0.50002983</v>
+        <v>0.50002983000000001</v>
       </c>
       <c r="G355">
-        <v>0.49997017</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>0.49997016999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8578,13 +8596,13 @@
         <v>0</v>
       </c>
       <c r="F356">
-        <v>0.49364033</v>
+        <v>0.49364033000000002</v>
       </c>
       <c r="G356">
-        <v>0.50635967</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>0.50635967000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8601,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0.48669334</v>
+        <v>0.48669333999999997</v>
       </c>
       <c r="G357">
-        <v>0.51330666</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>0.51330666000000003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8624,13 +8642,13 @@
         <v>1</v>
       </c>
       <c r="F358">
-        <v>0.48537403</v>
+        <v>0.48537403000000001</v>
       </c>
       <c r="G358">
-        <v>0.51462597</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>0.51462596999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8647,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="F359">
-        <v>0.47281746</v>
+        <v>0.47281746000000002</v>
       </c>
       <c r="G359">
-        <v>0.52718254</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+        <v>0.52718253999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8670,13 +8688,13 @@
         <v>0</v>
       </c>
       <c r="F360">
-        <v>0.4820408</v>
+        <v>0.48204079999999999</v>
       </c>
       <c r="G360">
-        <v>0.5179592000000001</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+        <v>0.51795920000000006</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8693,13 +8711,13 @@
         <v>1</v>
       </c>
       <c r="F361">
-        <v>0.46994293</v>
+        <v>0.46994292999999998</v>
       </c>
       <c r="G361">
-        <v>0.53005707</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>0.53005707000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8716,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="F362">
-        <v>0.47469757</v>
+        <v>0.47469757000000001</v>
       </c>
       <c r="G362">
-        <v>0.52530243</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>0.52530242999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.4797392</v>
+        <v>0.47973919999999998</v>
       </c>
       <c r="G363">
-        <v>0.5202608</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.52026079999999997</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="F364">
-        <v>0.47719017</v>
+        <v>0.47719017000000002</v>
       </c>
       <c r="G364">
-        <v>0.52280983</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.52280983000000003</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8785,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>0.47260445</v>
+        <v>0.47260445000000001</v>
       </c>
       <c r="G365">
-        <v>0.52739555</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.52739555000000005</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>0</v>
       </c>
       <c r="F366">
-        <v>0.46831337</v>
+        <v>0.46831337000000001</v>
       </c>
       <c r="G366">
-        <v>0.53168663</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.53168663000000005</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8831,13 +8849,13 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>0.47103596</v>
+        <v>0.47103595999999998</v>
       </c>
       <c r="G367">
-        <v>0.52896404</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>0.52896403999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8854,13 +8872,13 @@
         <v>1</v>
       </c>
       <c r="F368">
-        <v>0.4654535</v>
+        <v>0.46545350000000002</v>
       </c>
       <c r="G368">
-        <v>0.5345465</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>0.53454650000000004</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8877,13 +8895,13 @@
         <v>1</v>
       </c>
       <c r="F369">
-        <v>0.46948616</v>
+        <v>0.46948615999999999</v>
       </c>
       <c r="G369">
-        <v>0.53051384</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
+        <v>0.53051384000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8900,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="F370">
-        <v>0.4740267</v>
+        <v>0.47402670000000002</v>
       </c>
       <c r="G370">
-        <v>0.5259733</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>0.52597329999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8923,13 +8941,13 @@
         <v>1</v>
       </c>
       <c r="F371">
-        <v>0.4674186</v>
+        <v>0.46741860000000002</v>
       </c>
       <c r="G371">
-        <v>0.5325814</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>0.53258139999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8946,13 +8964,13 @@
         <v>1</v>
       </c>
       <c r="F372">
-        <v>0.4713142</v>
+        <v>0.47131420000000002</v>
       </c>
       <c r="G372">
-        <v>0.5286858</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+        <v>0.52868579999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8972,10 +8990,10 @@
         <v>0.4749758</v>
       </c>
       <c r="G373">
-        <v>0.5250242000000001</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>0.52502420000000005</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8992,13 +9010,13 @@
         <v>1</v>
       </c>
       <c r="F374">
-        <v>0.46821495</v>
+        <v>0.46821495000000002</v>
       </c>
       <c r="G374">
-        <v>0.53178505</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+        <v>0.53178504999999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9015,13 +9033,13 @@
         <v>1</v>
       </c>
       <c r="F375">
-        <v>0.4767997</v>
+        <v>0.47679969999999999</v>
       </c>
       <c r="G375">
-        <v>0.5232003000000001</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
+        <v>0.52320030000000006</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9038,13 +9056,13 @@
         <v>0</v>
       </c>
       <c r="F376">
-        <v>0.48456978</v>
+        <v>0.48456978000000001</v>
       </c>
       <c r="G376">
-        <v>0.5154302200000001</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
+        <v>0.51543022000000005</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9064,10 +9082,10 @@
         <v>0.4825352</v>
       </c>
       <c r="G377">
-        <v>0.5174647999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.51746479999999995</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9084,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="F378">
-        <v>0.4853743699999999</v>
+        <v>0.48537436999999989</v>
       </c>
       <c r="G378">
-        <v>0.5146256300000001</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
+        <v>0.51462563000000006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9107,13 +9125,13 @@
         <v>1</v>
       </c>
       <c r="F379">
-        <v>0.47650116</v>
+        <v>0.47650115999999998</v>
       </c>
       <c r="G379">
-        <v>0.52349884</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+        <v>0.52349884000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>1</v>
       </c>
       <c r="F380">
-        <v>0.468444</v>
+        <v>0.46844400000000003</v>
       </c>
       <c r="G380">
-        <v>0.531556</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.53155600000000003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9156,10 +9174,10 @@
         <v>0.4813576</v>
       </c>
       <c r="G381">
-        <v>0.5186424000000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>0.51864240000000006</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9176,13 +9194,13 @@
         <v>0</v>
       </c>
       <c r="F382">
-        <v>0.4716665</v>
+        <v>0.47166649999999999</v>
       </c>
       <c r="G382">
-        <v>0.5283335</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>0.52833350000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9199,13 +9217,13 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>0.45305805</v>
+        <v>0.45305804999999999</v>
       </c>
       <c r="G383">
-        <v>0.54694195</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>0.54694195000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>1</v>
       </c>
       <c r="F384">
-        <v>0.41692696</v>
+        <v>0.41692696000000001</v>
       </c>
       <c r="G384">
-        <v>0.58307304</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.58307304000000004</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9248,10 +9266,10 @@
         <v>0.41298023</v>
       </c>
       <c r="G385">
-        <v>0.5870197699999999</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>0.58701976999999994</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9268,13 +9286,13 @@
         <v>1</v>
       </c>
       <c r="F386">
-        <v>0.43079063</v>
+        <v>0.43079063000000001</v>
       </c>
       <c r="G386">
-        <v>0.56920937</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>0.56920937000000005</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9291,13 +9309,13 @@
         <v>0</v>
       </c>
       <c r="F387">
-        <v>0.4185615</v>
+        <v>0.41856149999999998</v>
       </c>
       <c r="G387">
-        <v>0.5814385</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
+        <v>0.58143849999999997</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9314,13 +9332,13 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>0.446344</v>
+        <v>0.44634400000000002</v>
       </c>
       <c r="G388">
-        <v>0.553656</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+        <v>0.55365600000000004</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9337,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="F389">
-        <v>0.4589303</v>
+        <v>0.45893030000000001</v>
       </c>
       <c r="G389">
-        <v>0.5410697</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>0.54106969999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9360,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="F390">
-        <v>0.46385895</v>
+        <v>0.46385894999999999</v>
       </c>
       <c r="G390">
-        <v>0.53614105</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+        <v>0.53614105000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>0.47939465</v>
+        <v>0.47939464999999998</v>
       </c>
       <c r="G391">
-        <v>0.52060535</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.52060534999999997</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9406,18 +9424,18 @@
         <v>0</v>
       </c>
       <c r="F392">
-        <v>0.4684212</v>
+        <v>0.46842119999999998</v>
       </c>
       <c r="G392">
-        <v>0.5315788</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+        <v>0.53157880000000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>45768.47916666666</v>
+        <v>45768.479166666657</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -9429,18 +9447,18 @@
         <v>0</v>
       </c>
       <c r="F393">
-        <v>0.4700507202148437</v>
+        <v>0.47005072021484368</v>
       </c>
       <c r="G393">
-        <v>0.5299492797851563</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
+        <v>0.52994927978515627</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>45769.47916666666</v>
+        <v>45769.479166666657</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -9452,18 +9470,18 @@
         <v>1</v>
       </c>
       <c r="F394">
-        <v>0.468677978515625</v>
+        <v>0.46867797851562498</v>
       </c>
       <c r="G394">
-        <v>0.531322021484375</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
+        <v>0.53132202148437502</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>45770.47916666666</v>
+        <v>45770.479166666657</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -9475,18 +9493,18 @@
         <v>0</v>
       </c>
       <c r="F395">
-        <v>0.469290771484375</v>
+        <v>0.46929077148437498</v>
       </c>
       <c r="G395">
-        <v>0.530709228515625</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>0.53070922851562496</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>45771.47916666666</v>
+        <v>45771.479166666657</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -9498,18 +9516,18 @@
         <v>1</v>
       </c>
       <c r="F396">
-        <v>0.4665550537109375</v>
+        <v>0.46655505371093747</v>
       </c>
       <c r="G396">
-        <v>0.5334449462890625</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
+        <v>0.53344494628906247</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>45772.47916666666</v>
+        <v>45772.479166666657</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -9521,18 +9539,18 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>0.4788703002929687</v>
+        <v>0.47887030029296868</v>
       </c>
       <c r="G397">
-        <v>0.5211296997070313</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>0.52112969970703127</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>45775.47916666666</v>
+        <v>45775.479166666657</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -9550,12 +9568,12 @@
         <v>0.5223598022460938</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>45776.47916666666</v>
+        <v>45776.479166666657</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -9567,18 +9585,18 @@
         <v>1</v>
       </c>
       <c r="F399">
-        <v>0.4816941528320312</v>
+        <v>0.48169415283203121</v>
       </c>
       <c r="G399">
-        <v>0.5183058471679688</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>0.51830584716796879</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>45777.47916666666</v>
+        <v>45777.479166666657</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -9590,18 +9608,18 @@
         <v>1</v>
       </c>
       <c r="F400">
-        <v>0.4818563842773437</v>
+        <v>0.48185638427734367</v>
       </c>
       <c r="G400">
-        <v>0.5181436157226562</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.51814361572265621</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>45778.47916666666</v>
+        <v>45778.479166666657</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -9613,18 +9631,18 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0.4798424682617188</v>
+        <v>0.47984246826171878</v>
       </c>
       <c r="G401">
-        <v>0.5201575317382813</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.52015753173828128</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>45779.47916666666</v>
+        <v>45779.479166666657</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -9642,12 +9660,12 @@
         <v>0.5134326171875</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <v>45782.47916666666</v>
+        <v>45782.479166666657</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -9659,18 +9677,18 @@
         <v>1</v>
       </c>
       <c r="F403">
-        <v>0.4848604736328125</v>
+        <v>0.48486047363281248</v>
       </c>
       <c r="G403">
-        <v>0.5151395263671875</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+        <v>0.51513952636718752</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" s="2">
-        <v>45783.47916666666</v>
+        <v>45783.479166666657</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -9682,18 +9700,18 @@
         <v>1</v>
       </c>
       <c r="F404">
-        <v>0.4961038818359375</v>
+        <v>0.49610388183593751</v>
       </c>
       <c r="G404">
-        <v>0.5038961181640625</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
+        <v>0.50389611816406255</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" s="2">
-        <v>45784.47916666666</v>
+        <v>45784.479166666657</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -9711,12 +9729,12 @@
         <v>0.5012046508789062</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" s="2">
-        <v>45785.47916666666</v>
+        <v>45785.479166666657</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -9728,18 +9746,18 @@
         <v>0</v>
       </c>
       <c r="F406">
-        <v>0.495526123046875</v>
+        <v>0.49552612304687499</v>
       </c>
       <c r="G406">
-        <v>0.504473876953125</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>0.50447387695312496</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" s="2">
-        <v>45786.47916666666</v>
+        <v>45786.479166666657</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -9751,18 +9769,18 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>0.492390625</v>
+        <v>0.49239062500000003</v>
       </c>
       <c r="G407">
-        <v>0.5076093749999999</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
+        <v>0.50760937499999992</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408" s="2">
-        <v>45789.47916666666</v>
+        <v>45789.479166666657</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -9774,18 +9792,18 @@
         <v>1</v>
       </c>
       <c r="F408">
-        <v>0.49254150390625</v>
+        <v>0.49254150390625001</v>
       </c>
       <c r="G408">
-        <v>0.50745849609375</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
+        <v>0.50745849609375004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409" s="2">
-        <v>45790.47916666666</v>
+        <v>45790.479166666657</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -9797,18 +9815,18 @@
         <v>1</v>
       </c>
       <c r="F409">
-        <v>0.4903531494140625</v>
+        <v>0.49035314941406249</v>
       </c>
       <c r="G409">
-        <v>0.5096468505859375</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
+        <v>0.50964685058593751</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410" s="2">
-        <v>45791.47916666666</v>
+        <v>45791.479166666657</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -9820,18 +9838,18 @@
         <v>0</v>
       </c>
       <c r="F410">
-        <v>0.4922997741699218</v>
+        <v>0.49229977416992182</v>
       </c>
       <c r="G410">
-        <v>0.5077002258300781</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7">
+        <v>0.50770022583007812</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411" s="2">
-        <v>45792.47916666666</v>
+        <v>45792.479166666657</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -9843,18 +9861,18 @@
         <v>1</v>
       </c>
       <c r="F411">
-        <v>0.4940023803710937</v>
+        <v>0.49400238037109367</v>
       </c>
       <c r="G411">
-        <v>0.5059976196289062</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
+        <v>0.50599761962890621</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412" s="2">
-        <v>45793.47916666666</v>
+        <v>45793.479166666657</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -9866,18 +9884,18 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>0.4906593017578125</v>
+        <v>0.49065930175781253</v>
       </c>
       <c r="G412">
-        <v>0.5093406982421875</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
+        <v>0.50934069824218753</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413" s="2">
-        <v>45796.47916666666</v>
+        <v>45796.479166666657</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -9889,18 +9907,18 @@
         <v>1</v>
       </c>
       <c r="F413">
-        <v>0.4929844360351562</v>
+        <v>0.49298443603515618</v>
       </c>
       <c r="G413">
-        <v>0.5070155639648438</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.50701556396484382</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" s="2">
-        <v>45797.47916666666</v>
+        <v>45797.479166666657</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -9912,18 +9930,18 @@
         <v>0</v>
       </c>
       <c r="F414">
-        <v>0.4927019958496093</v>
+        <v>0.49270199584960928</v>
       </c>
       <c r="G414">
-        <v>0.5072980041503906</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.50729800415039061</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415" s="2">
-        <v>45798.47916666666</v>
+        <v>45798.479166666657</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -9935,18 +9953,18 @@
         <v>0</v>
       </c>
       <c r="F415">
-        <v>0.4936453552246094</v>
+        <v>0.49364535522460939</v>
       </c>
       <c r="G415">
-        <v>0.5063546447753906</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>0.50635464477539061</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416" s="2">
-        <v>45799.47916666666</v>
+        <v>45799.479166666657</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -9958,18 +9976,18 @@
         <v>1</v>
       </c>
       <c r="F416">
-        <v>0.486700439453125</v>
+        <v>0.48670043945312502</v>
       </c>
       <c r="G416">
-        <v>0.513299560546875</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
+        <v>0.51329956054687498</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417" s="2">
-        <v>45800.47916666666</v>
+        <v>45800.479166666657</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -9981,18 +9999,18 @@
         <v>1</v>
       </c>
       <c r="F417">
-        <v>0.4933643188476562</v>
+        <v>0.49336431884765619</v>
       </c>
       <c r="G417">
-        <v>0.5066356811523438</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
+        <v>0.50663568115234381</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418" s="2">
-        <v>45804.47916666666</v>
+        <v>45804.479166666657</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -10004,18 +10022,18 @@
         <v>1</v>
       </c>
       <c r="F418">
-        <v>0.4955128479003906</v>
+        <v>0.49551284790039057</v>
       </c>
       <c r="G418">
-        <v>0.5044871520996094</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+        <v>0.50448715209960937</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419" s="2">
-        <v>45805.47916666666</v>
+        <v>45805.479166666657</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -10030,15 +10048,15 @@
         <v>0.490468994140625</v>
       </c>
       <c r="G419">
-        <v>0.5095310058593749</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.50953100585937494</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420" s="2">
-        <v>45806.47916666666</v>
+        <v>45806.479166666657</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -10050,18 +10068,18 @@
         <v>0</v>
       </c>
       <c r="F420">
-        <v>0.4960765380859375</v>
+        <v>0.49607653808593749</v>
       </c>
       <c r="G420">
-        <v>0.5039234619140625</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.50392346191406245</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421" s="2">
-        <v>45807.47916666666</v>
+        <v>45807.479166666657</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -10073,18 +10091,18 @@
         <v>1</v>
       </c>
       <c r="F421">
-        <v>0.4923441162109375</v>
+        <v>0.49234411621093749</v>
       </c>
       <c r="G421">
-        <v>0.5076558837890626</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.50765588378906257</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" s="2">
-        <v>45810.47916666666</v>
+        <v>45810.479166666657</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -10096,18 +10114,18 @@
         <v>1</v>
       </c>
       <c r="F422">
-        <v>0.4877817993164062</v>
+        <v>0.48778179931640619</v>
       </c>
       <c r="G422">
-        <v>0.5122182006835938</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>0.51221820068359381</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -10119,18 +10137,18 @@
         <v>1</v>
       </c>
       <c r="F423">
-        <v>0.4971804809570313</v>
+        <v>0.49718048095703132</v>
       </c>
       <c r="G423">
-        <v>0.5028195190429687</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
+        <v>0.50281951904296873</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -10142,18 +10160,18 @@
         <v>0</v>
       </c>
       <c r="F424">
-        <v>0.493004150390625</v>
+        <v>0.49300415039062501</v>
       </c>
       <c r="G424">
-        <v>0.506995849609375</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+        <v>0.50699584960937505</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="B425" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -10165,18 +10183,18 @@
         <v>0</v>
       </c>
       <c r="F425">
-        <v>0.4976005859375</v>
+        <v>0.49760058593750001</v>
       </c>
       <c r="G425">
-        <v>0.5023994140625</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+        <v>0.50239941406249999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -10188,18 +10206,18 @@
         <v>1</v>
       </c>
       <c r="F426">
-        <v>0.4863212890625001</v>
+        <v>0.48632128906250011</v>
       </c>
       <c r="G426">
-        <v>0.5136787109374999</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
+        <v>0.51367871093749995</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="B427" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -10211,18 +10229,18 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>0.4927670288085937</v>
+        <v>0.49276702880859369</v>
       </c>
       <c r="G427">
         <v>0.5072329711914062</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="B428" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -10234,18 +10252,18 @@
         <v>1</v>
       </c>
       <c r="F428">
-        <v>0.495244873046875</v>
+        <v>0.49524487304687498</v>
       </c>
       <c r="G428">
-        <v>0.5047551269531251</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7">
+        <v>0.50475512695312508</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -10260,15 +10278,15 @@
         <v>0.4909956665039063</v>
       </c>
       <c r="G429">
-        <v>0.5090043334960938</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
+        <v>0.50900433349609375</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -10280,18 +10298,18 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>0.4853348388671875</v>
+        <v>0.48533483886718748</v>
       </c>
       <c r="G430">
-        <v>0.5146651611328125</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>0.51466516113281247</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -10303,18 +10321,18 @@
         <v>0</v>
       </c>
       <c r="F431">
-        <v>0.4924974365234375</v>
+        <v>0.49249743652343753</v>
       </c>
       <c r="G431">
-        <v>0.5075025634765624</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+        <v>0.50750256347656242</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="B432" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -10326,18 +10344,18 @@
         <v>1</v>
       </c>
       <c r="F432">
-        <v>0.4892390136718749</v>
+        <v>0.48923901367187489</v>
       </c>
       <c r="G432">
-        <v>0.5107609863281251</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>0.51076098632812506</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -10349,18 +10367,18 @@
         <v>0</v>
       </c>
       <c r="F433">
-        <v>0.4914395751953125</v>
+        <v>0.49143957519531251</v>
       </c>
       <c r="G433">
-        <v>0.5085604248046875</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7">
+        <v>0.50856042480468755</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -10372,18 +10390,18 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0.4945132446289062</v>
+        <v>0.49451324462890622</v>
       </c>
       <c r="G434">
-        <v>0.5054867553710938</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.50548675537109378</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="B435" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -10395,18 +10413,18 @@
         <v>0</v>
       </c>
       <c r="F435">
-        <v>0.4905180053710937</v>
+        <v>0.49051800537109369</v>
       </c>
       <c r="G435">
-        <v>0.5094819946289063</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.50948199462890631</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="B436" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -10418,18 +10436,18 @@
         <v>1</v>
       </c>
       <c r="F436">
-        <v>0.4948355712890625</v>
+        <v>0.49483557128906253</v>
       </c>
       <c r="G436">
-        <v>0.5051644287109375</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.50516442871093747</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="B437" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -10441,18 +10459,18 @@
         <v>1</v>
       </c>
       <c r="F437">
-        <v>0.4922971801757812</v>
+        <v>0.49229718017578122</v>
       </c>
       <c r="G437">
-        <v>0.5077028198242188</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
+        <v>0.50770281982421883</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -10464,27 +10482,27 @@
         <v>0</v>
       </c>
       <c r="F438">
-        <v>0.4963757629394532</v>
+        <v>0.49637576293945318</v>
       </c>
       <c r="G438">
-        <v>0.5036242370605468</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
+        <v>0.50362423706054682</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D439">
         <v>1</v>
       </c>
       <c r="F439">
-        <v>0.4948279113769531</v>
+        <v>0.49482791137695309</v>
       </c>
       <c r="G439">
-        <v>0.5051720886230469</v>
+        <v>0.50517208862304686</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="672">
   <si>
     <t>date</t>
   </si>
@@ -1426,6 +1426,24 @@
     <t>2025-08-01</t>
   </si>
   <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
     <t>52.14</t>
   </si>
   <si>
@@ -2009,6 +2027,9 @@
   </si>
   <si>
     <t>50.62</t>
+  </si>
+  <si>
+    <t>53.14</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H464"/>
+  <dimension ref="A1:H470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2418,7 +2439,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2444,7 +2465,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2470,7 +2491,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2496,7 +2517,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2522,7 +2543,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2548,7 +2569,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2574,7 +2595,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2600,7 +2621,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2626,7 +2647,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2652,7 +2673,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2678,7 +2699,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2704,7 +2725,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2730,7 +2751,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2756,7 +2777,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2782,7 +2803,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2808,7 +2829,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2834,7 +2855,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2860,7 +2881,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2886,7 +2907,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2912,7 +2933,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2938,7 +2959,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2964,7 +2985,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2990,7 +3011,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3016,7 +3037,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3042,7 +3063,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3068,7 +3089,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3094,7 +3115,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3120,7 +3141,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3146,7 +3167,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3172,7 +3193,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3198,7 +3219,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3224,7 +3245,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3250,7 +3271,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3276,7 +3297,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3302,7 +3323,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3328,7 +3349,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3354,7 +3375,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3380,7 +3401,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3406,7 +3427,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3432,7 +3453,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3458,7 +3479,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3484,7 +3505,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3510,7 +3531,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3536,7 +3557,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3562,7 +3583,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3588,7 +3609,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3614,7 +3635,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3640,7 +3661,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3666,7 +3687,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3692,7 +3713,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3718,7 +3739,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3744,7 +3765,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3770,7 +3791,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3796,7 +3817,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3822,7 +3843,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3848,7 +3869,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3874,7 +3895,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3900,7 +3921,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3926,7 +3947,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3952,7 +3973,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3978,7 +3999,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4004,7 +4025,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4030,7 +4051,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4056,7 +4077,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4082,7 +4103,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4108,7 +4129,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4134,7 +4155,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4160,7 +4181,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4186,7 +4207,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4212,7 +4233,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4238,7 +4259,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4264,7 +4285,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4290,7 +4311,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4316,7 +4337,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4342,7 +4363,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4368,7 +4389,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4394,7 +4415,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4420,7 +4441,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4446,7 +4467,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4472,7 +4493,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4498,7 +4519,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4524,7 +4545,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4550,7 +4571,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4576,7 +4597,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4602,7 +4623,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4628,7 +4649,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4654,7 +4675,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4680,7 +4701,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4706,7 +4727,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4732,7 +4753,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4758,7 +4779,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4784,7 +4805,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4810,7 +4831,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4836,7 +4857,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4862,7 +4883,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4888,7 +4909,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4914,7 +4935,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4940,7 +4961,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4966,7 +4987,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4992,7 +5013,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5018,7 +5039,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5044,7 +5065,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5070,7 +5091,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5096,7 +5117,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5122,7 +5143,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5148,7 +5169,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5174,7 +5195,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5200,7 +5221,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5226,7 +5247,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5252,7 +5273,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5278,7 +5299,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5304,7 +5325,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5330,7 +5351,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5356,7 +5377,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5382,7 +5403,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5408,7 +5429,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5434,7 +5455,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5460,7 +5481,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5486,7 +5507,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5512,7 +5533,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5538,7 +5559,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5564,7 +5585,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5590,7 +5611,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5616,7 +5637,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5642,7 +5663,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5668,7 +5689,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5694,7 +5715,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5720,7 +5741,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5746,7 +5767,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5772,7 +5793,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5798,7 +5819,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5824,7 +5845,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5850,7 +5871,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5876,7 +5897,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5902,7 +5923,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5928,7 +5949,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5954,7 +5975,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5980,7 +6001,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6006,7 +6027,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6032,7 +6053,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6058,7 +6079,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6084,7 +6105,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6110,7 +6131,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6136,7 +6157,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6162,7 +6183,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6188,7 +6209,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6214,7 +6235,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6240,7 +6261,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6266,7 +6287,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6292,7 +6313,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6318,7 +6339,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6344,7 +6365,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6370,7 +6391,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6396,7 +6417,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6422,7 +6443,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6448,7 +6469,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6474,7 +6495,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6500,7 +6521,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6526,7 +6547,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6552,7 +6573,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6578,7 +6599,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6604,7 +6625,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6630,7 +6651,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6656,7 +6677,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6682,7 +6703,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6708,7 +6729,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6734,7 +6755,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6760,7 +6781,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6786,7 +6807,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6812,7 +6833,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6838,7 +6859,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6864,7 +6885,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6890,7 +6911,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6916,7 +6937,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6942,7 +6963,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6968,7 +6989,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6994,7 +7015,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7020,7 +7041,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7046,7 +7067,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7072,7 +7093,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7098,7 +7119,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7124,7 +7145,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7150,7 +7171,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7176,7 +7197,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7202,7 +7223,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7228,7 +7249,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7254,7 +7275,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7280,7 +7301,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7306,7 +7327,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7332,7 +7353,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7358,7 +7379,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7384,7 +7405,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7410,7 +7431,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7436,7 +7457,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7462,7 +7483,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7488,7 +7509,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7514,7 +7535,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7540,7 +7561,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7566,7 +7587,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7592,7 +7613,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7618,7 +7639,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7644,7 +7665,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7670,7 +7691,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7696,7 +7717,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7722,7 +7743,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7748,7 +7769,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7774,7 +7795,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7800,7 +7821,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7826,7 +7847,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7852,7 +7873,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7878,7 +7899,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7904,7 +7925,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7930,7 +7951,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7956,7 +7977,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7982,7 +8003,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8008,7 +8029,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8034,7 +8055,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8060,7 +8081,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8086,7 +8107,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8112,7 +8133,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8138,7 +8159,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8164,7 +8185,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8190,7 +8211,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8216,7 +8237,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8242,7 +8263,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8268,7 +8289,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8294,7 +8315,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8320,7 +8341,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8346,7 +8367,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8372,7 +8393,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8398,7 +8419,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8424,7 +8445,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8450,7 +8471,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8476,7 +8497,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8502,7 +8523,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8528,7 +8549,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8554,7 +8575,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8580,7 +8601,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8606,7 +8627,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8632,7 +8653,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8658,7 +8679,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8684,7 +8705,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8710,7 +8731,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8736,7 +8757,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8762,7 +8783,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8788,7 +8809,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8814,7 +8835,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8840,7 +8861,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8866,7 +8887,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8892,7 +8913,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8918,7 +8939,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8944,7 +8965,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8970,7 +8991,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8996,7 +9017,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9022,7 +9043,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9048,7 +9069,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9074,7 +9095,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9100,7 +9121,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9126,7 +9147,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9152,7 +9173,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9178,7 +9199,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9204,7 +9225,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9230,7 +9251,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9256,7 +9277,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9282,7 +9303,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9308,7 +9329,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9334,7 +9355,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9360,7 +9381,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9386,7 +9407,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9412,7 +9433,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9438,7 +9459,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9464,7 +9485,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9490,7 +9511,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9516,7 +9537,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9542,7 +9563,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9568,7 +9589,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9594,7 +9615,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9620,7 +9641,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9646,7 +9667,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9672,7 +9693,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9698,7 +9719,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9724,7 +9745,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9750,7 +9771,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9776,7 +9797,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9802,7 +9823,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9828,7 +9849,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9854,7 +9875,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9880,7 +9901,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9906,7 +9927,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9932,7 +9953,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9958,7 +9979,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9984,7 +10005,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10010,7 +10031,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10036,7 +10057,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10062,7 +10083,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10088,7 +10109,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10114,7 +10135,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10140,7 +10161,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10166,7 +10187,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10192,7 +10213,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10218,7 +10239,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10244,7 +10265,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10270,7 +10291,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10296,7 +10317,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10322,7 +10343,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10348,7 +10369,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10374,7 +10395,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10400,7 +10421,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10426,7 +10447,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10452,7 +10473,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10478,7 +10499,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10504,7 +10525,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10530,7 +10551,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10556,7 +10577,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10582,7 +10603,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10608,7 +10629,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10634,7 +10655,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10660,7 +10681,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10686,7 +10707,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10712,7 +10733,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10738,7 +10759,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10764,7 +10785,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10790,7 +10811,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10816,7 +10837,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10842,7 +10863,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10868,7 +10889,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10894,7 +10915,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10920,7 +10941,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10946,7 +10967,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10972,7 +10993,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10998,7 +11019,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11024,7 +11045,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11050,7 +11071,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11076,7 +11097,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11102,7 +11123,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11128,7 +11149,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11154,7 +11175,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11180,7 +11201,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11206,7 +11227,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11232,7 +11253,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11258,7 +11279,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11284,7 +11305,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11310,7 +11331,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11336,7 +11357,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11362,7 +11383,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11388,7 +11409,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11414,7 +11435,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11440,7 +11461,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11466,7 +11487,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11492,7 +11513,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11518,7 +11539,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11544,7 +11565,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11570,7 +11591,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11596,7 +11617,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11622,7 +11643,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11648,7 +11669,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11674,7 +11695,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11700,7 +11721,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11726,7 +11747,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11752,7 +11773,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11778,7 +11799,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11804,7 +11825,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11830,7 +11851,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11856,7 +11877,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11882,7 +11903,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11908,7 +11929,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11934,7 +11955,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11960,7 +11981,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11986,7 +12007,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12012,7 +12033,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12038,7 +12059,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12064,7 +12085,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12090,7 +12111,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12116,7 +12137,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12142,7 +12163,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12168,7 +12189,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12194,7 +12215,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12220,7 +12241,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12246,7 +12267,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12272,7 +12293,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12298,7 +12319,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12324,7 +12345,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12350,7 +12371,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12376,7 +12397,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12402,7 +12423,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12428,7 +12449,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12454,7 +12475,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12480,7 +12501,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12506,7 +12527,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12532,7 +12553,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12558,7 +12579,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12584,7 +12605,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12610,7 +12631,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12636,7 +12657,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12662,7 +12683,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12688,7 +12709,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12714,7 +12735,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12740,7 +12761,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12766,7 +12787,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12792,7 +12813,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12818,7 +12839,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12844,7 +12865,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12870,7 +12891,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12896,7 +12917,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12922,7 +12943,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12948,7 +12969,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12974,7 +12995,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13000,7 +13021,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13026,7 +13047,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13052,7 +13073,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13078,7 +13099,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13104,7 +13125,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13130,7 +13151,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13156,7 +13177,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13182,7 +13203,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13208,7 +13229,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13234,7 +13255,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13260,7 +13281,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13286,7 +13307,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13312,7 +13333,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13338,7 +13359,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13364,7 +13385,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13390,7 +13411,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13416,7 +13437,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13442,7 +13463,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13468,7 +13489,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13494,7 +13515,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13520,7 +13541,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13546,7 +13567,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13572,7 +13593,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13598,7 +13619,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13624,7 +13645,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13650,7 +13671,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13676,7 +13697,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13702,7 +13723,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13728,7 +13749,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13754,7 +13775,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13780,7 +13801,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13806,7 +13827,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13832,7 +13853,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13858,7 +13879,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13884,7 +13905,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13910,7 +13931,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13936,7 +13957,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13962,7 +13983,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13988,7 +14009,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14014,7 +14035,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14040,7 +14061,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14066,7 +14087,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14092,7 +14113,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14118,7 +14139,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14144,7 +14165,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14170,7 +14191,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14196,7 +14217,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14222,7 +14243,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14248,7 +14269,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14274,7 +14295,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14300,7 +14321,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14326,7 +14347,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14352,7 +14373,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14378,7 +14399,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14404,7 +14425,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14414,8 +14435,14 @@
       <c r="B464" t="s">
         <v>469</v>
       </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
       <c r="D464">
         <v>1</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
       </c>
       <c r="F464">
         <v>0.4809100952148437</v>
@@ -14424,7 +14451,157 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>576</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>470</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>0.4686441650390625</v>
+      </c>
+      <c r="G465">
+        <v>0.5313558349609375</v>
+      </c>
+      <c r="H465" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>471</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0.4904288635253906</v>
+      </c>
+      <c r="G466">
+        <v>0.5095711364746094</v>
+      </c>
+      <c r="H466" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>472</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>0.4936757202148438</v>
+      </c>
+      <c r="G467">
+        <v>0.5063242797851563</v>
+      </c>
+      <c r="H467" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>473</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0.4931819152832031</v>
+      </c>
+      <c r="G468">
+        <v>0.5068180847167969</v>
+      </c>
+      <c r="H468" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>474</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>0.4944696350097657</v>
+      </c>
+      <c r="G469">
+        <v>0.5055303649902343</v>
+      </c>
+      <c r="H469" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>475</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>0.495837158203125</v>
+      </c>
+      <c r="G470">
+        <v>0.504162841796875</v>
+      </c>
+      <c r="H470" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="675">
   <si>
     <t>date</t>
   </si>
@@ -1442,6 +1442,15 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
   </si>
   <si>
     <t>52.14</t>
@@ -2387,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2439,7 +2448,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2465,7 +2474,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2491,7 +2500,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2517,7 +2526,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2543,7 +2552,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2569,7 +2578,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2595,7 +2604,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2621,7 +2630,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2647,7 +2656,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2673,7 +2682,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2699,7 +2708,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2725,7 +2734,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2751,7 +2760,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2777,7 +2786,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2803,7 +2812,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2829,7 +2838,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2855,7 +2864,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2881,7 +2890,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2907,7 +2916,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2933,7 +2942,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2959,7 +2968,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2985,7 +2994,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3011,7 +3020,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3037,7 +3046,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3063,7 +3072,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3089,7 +3098,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3115,7 +3124,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3141,7 +3150,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3167,7 +3176,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3193,7 +3202,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3219,7 +3228,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3245,7 +3254,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3271,7 +3280,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3297,7 +3306,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3323,7 +3332,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3349,7 +3358,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3375,7 +3384,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3401,7 +3410,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3427,7 +3436,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3453,7 +3462,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3479,7 +3488,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3505,7 +3514,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3531,7 +3540,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3557,7 +3566,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3583,7 +3592,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3609,7 +3618,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3635,7 +3644,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3661,7 +3670,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3687,7 +3696,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3713,7 +3722,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3739,7 +3748,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3765,7 +3774,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3791,7 +3800,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3817,7 +3826,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3843,7 +3852,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3869,7 +3878,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3895,7 +3904,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3921,7 +3930,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3947,7 +3956,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3973,7 +3982,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3999,7 +4008,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4025,7 +4034,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4051,7 +4060,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4077,7 +4086,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4103,7 +4112,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4129,7 +4138,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4155,7 +4164,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4181,7 +4190,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4207,7 +4216,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4233,7 +4242,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4259,7 +4268,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4285,7 +4294,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4311,7 +4320,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4337,7 +4346,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4363,7 +4372,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4389,7 +4398,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4415,7 +4424,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4441,7 +4450,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4467,7 +4476,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4493,7 +4502,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4519,7 +4528,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4545,7 +4554,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4571,7 +4580,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4597,7 +4606,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4623,7 +4632,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4649,7 +4658,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4675,7 +4684,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4701,7 +4710,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4727,7 +4736,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4753,7 +4762,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4779,7 +4788,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4805,7 +4814,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4831,7 +4840,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4857,7 +4866,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4883,7 +4892,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4909,7 +4918,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4935,7 +4944,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4961,7 +4970,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4987,7 +4996,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5013,7 +5022,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5039,7 +5048,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5065,7 +5074,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5091,7 +5100,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5117,7 +5126,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5143,7 +5152,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5169,7 +5178,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5195,7 +5204,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5221,7 +5230,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5247,7 +5256,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5273,7 +5282,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5299,7 +5308,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5325,7 +5334,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5351,7 +5360,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5377,7 +5386,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5403,7 +5412,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5429,7 +5438,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5455,7 +5464,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5481,7 +5490,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5507,7 +5516,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5533,7 +5542,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5559,7 +5568,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5585,7 +5594,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5611,7 +5620,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5637,7 +5646,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5663,7 +5672,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5689,7 +5698,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5715,7 +5724,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5741,7 +5750,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5767,7 +5776,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5793,7 +5802,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5819,7 +5828,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5845,7 +5854,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5871,7 +5880,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5897,7 +5906,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5923,7 +5932,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5949,7 +5958,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5975,7 +5984,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6001,7 +6010,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6027,7 +6036,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6053,7 +6062,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6079,7 +6088,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6105,7 +6114,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6131,7 +6140,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6157,7 +6166,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6183,7 +6192,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6209,7 +6218,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6235,7 +6244,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6261,7 +6270,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6287,7 +6296,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6313,7 +6322,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6339,7 +6348,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6365,7 +6374,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6391,7 +6400,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6417,7 +6426,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6443,7 +6452,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6469,7 +6478,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6495,7 +6504,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6521,7 +6530,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6547,7 +6556,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6573,7 +6582,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6599,7 +6608,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6625,7 +6634,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6651,7 +6660,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6677,7 +6686,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6703,7 +6712,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6729,7 +6738,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6755,7 +6764,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6781,7 +6790,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6807,7 +6816,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6833,7 +6842,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6859,7 +6868,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6885,7 +6894,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6911,7 +6920,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6937,7 +6946,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6963,7 +6972,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6989,7 +6998,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7015,7 +7024,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7041,7 +7050,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7067,7 +7076,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7093,7 +7102,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7119,7 +7128,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7145,7 +7154,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7171,7 +7180,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7197,7 +7206,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7223,7 +7232,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7249,7 +7258,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7275,7 +7284,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7301,7 +7310,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7327,7 +7336,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7353,7 +7362,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7379,7 +7388,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7405,7 +7414,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7431,7 +7440,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7457,7 +7466,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7483,7 +7492,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7509,7 +7518,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7535,7 +7544,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7561,7 +7570,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7587,7 +7596,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7613,7 +7622,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7639,7 +7648,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7665,7 +7674,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7691,7 +7700,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7717,7 +7726,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7743,7 +7752,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7769,7 +7778,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7795,7 +7804,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7821,7 +7830,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7847,7 +7856,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7873,7 +7882,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7899,7 +7908,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7925,7 +7934,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7951,7 +7960,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7977,7 +7986,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8003,7 +8012,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8029,7 +8038,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8055,7 +8064,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8081,7 +8090,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8107,7 +8116,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8133,7 +8142,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8159,7 +8168,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8185,7 +8194,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8211,7 +8220,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8237,7 +8246,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8263,7 +8272,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8289,7 +8298,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8315,7 +8324,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8341,7 +8350,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8367,7 +8376,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8393,7 +8402,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8419,7 +8428,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8445,7 +8454,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8471,7 +8480,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8497,7 +8506,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8523,7 +8532,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8549,7 +8558,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8575,7 +8584,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8601,7 +8610,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8627,7 +8636,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8653,7 +8662,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8679,7 +8688,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8705,7 +8714,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8731,7 +8740,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8757,7 +8766,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8783,7 +8792,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8809,7 +8818,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8835,7 +8844,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8861,7 +8870,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8887,7 +8896,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8913,7 +8922,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8939,7 +8948,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8965,7 +8974,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8991,7 +9000,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9017,7 +9026,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9043,7 +9052,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9069,7 +9078,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9095,7 +9104,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9121,7 +9130,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9147,7 +9156,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9173,7 +9182,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9199,7 +9208,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9225,7 +9234,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9251,7 +9260,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9277,7 +9286,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9303,7 +9312,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9329,7 +9338,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9355,7 +9364,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9381,7 +9390,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9407,7 +9416,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9433,7 +9442,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9459,7 +9468,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9485,7 +9494,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9511,7 +9520,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9537,7 +9546,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9563,7 +9572,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9589,7 +9598,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9615,7 +9624,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9641,7 +9650,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9667,7 +9676,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9693,7 +9702,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9719,7 +9728,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9745,7 +9754,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9771,7 +9780,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9797,7 +9806,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9823,7 +9832,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9849,7 +9858,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9875,7 +9884,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9901,7 +9910,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9927,7 +9936,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9953,7 +9962,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9979,7 +9988,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10005,7 +10014,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10031,7 +10040,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10057,7 +10066,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10083,7 +10092,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10109,7 +10118,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10135,7 +10144,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10161,7 +10170,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10187,7 +10196,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10213,7 +10222,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10239,7 +10248,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10265,7 +10274,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10291,7 +10300,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10317,7 +10326,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10343,7 +10352,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10369,7 +10378,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10395,7 +10404,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10421,7 +10430,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10447,7 +10456,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10473,7 +10482,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10499,7 +10508,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10525,7 +10534,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10551,7 +10560,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10577,7 +10586,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10603,7 +10612,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10629,7 +10638,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10655,7 +10664,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10681,7 +10690,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10707,7 +10716,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10733,7 +10742,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10759,7 +10768,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10785,7 +10794,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10811,7 +10820,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10837,7 +10846,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10863,7 +10872,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10889,7 +10898,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10915,7 +10924,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10941,7 +10950,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10967,7 +10976,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10993,7 +11002,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11019,7 +11028,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11045,7 +11054,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11071,7 +11080,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11097,7 +11106,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11123,7 +11132,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11149,7 +11158,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11175,7 +11184,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11201,7 +11210,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11227,7 +11236,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11253,7 +11262,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11279,7 +11288,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11305,7 +11314,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11331,7 +11340,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11357,7 +11366,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11383,7 +11392,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11409,7 +11418,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11435,7 +11444,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11461,7 +11470,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11487,7 +11496,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11513,7 +11522,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11539,7 +11548,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11565,7 +11574,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11591,7 +11600,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11617,7 +11626,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11643,7 +11652,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11669,7 +11678,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11695,7 +11704,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11721,7 +11730,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11747,7 +11756,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11773,7 +11782,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11799,7 +11808,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11825,7 +11834,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11851,7 +11860,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11877,7 +11886,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11903,7 +11912,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11929,7 +11938,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11955,7 +11964,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11981,7 +11990,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12007,7 +12016,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12033,7 +12042,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12059,7 +12068,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12085,7 +12094,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12111,7 +12120,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12137,7 +12146,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12163,7 +12172,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12189,7 +12198,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12215,7 +12224,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12241,7 +12250,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12267,7 +12276,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12293,7 +12302,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12319,7 +12328,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12345,7 +12354,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12371,7 +12380,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12397,7 +12406,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12423,7 +12432,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12449,7 +12458,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12475,7 +12484,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12501,7 +12510,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12527,7 +12536,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12553,7 +12562,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12579,7 +12588,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12605,7 +12614,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12631,7 +12640,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12657,7 +12666,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12683,7 +12692,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12709,7 +12718,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12735,7 +12744,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12761,7 +12770,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12787,7 +12796,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12813,7 +12822,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12839,7 +12848,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12865,7 +12874,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12891,7 +12900,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12917,7 +12926,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12943,7 +12952,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12969,7 +12978,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12995,7 +13004,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13021,7 +13030,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13047,7 +13056,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13073,7 +13082,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13099,7 +13108,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13125,7 +13134,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13151,7 +13160,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13177,7 +13186,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13203,7 +13212,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13229,7 +13238,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13255,7 +13264,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13281,7 +13290,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13307,7 +13316,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13333,7 +13342,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13359,7 +13368,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13385,7 +13394,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13411,7 +13420,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13437,7 +13446,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13463,7 +13472,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13489,7 +13498,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13515,7 +13524,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13541,7 +13550,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13567,7 +13576,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13593,7 +13602,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13619,7 +13628,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13645,7 +13654,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13671,7 +13680,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13697,7 +13706,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13723,7 +13732,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13749,7 +13758,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13775,7 +13784,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13801,7 +13810,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13827,7 +13836,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13853,7 +13862,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13879,7 +13888,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13905,7 +13914,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13931,7 +13940,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13957,7 +13966,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13983,7 +13992,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14009,7 +14018,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14035,7 +14044,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14061,7 +14070,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14087,7 +14096,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14113,7 +14122,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14139,7 +14148,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14165,7 +14174,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14191,7 +14200,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14217,7 +14226,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14243,7 +14252,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14269,7 +14278,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14295,7 +14304,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14321,7 +14330,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14347,7 +14356,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14373,7 +14382,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14399,7 +14408,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14425,7 +14434,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14451,7 +14460,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14477,7 +14486,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14503,7 +14512,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14529,7 +14538,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14555,7 +14564,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14581,7 +14590,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14591,8 +14600,14 @@
       <c r="B470" t="s">
         <v>475</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
       <c r="D470">
         <v>1</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
       </c>
       <c r="F470">
         <v>0.495837158203125</v>
@@ -14601,7 +14616,79 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>597</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>476</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>0.4967435302734375</v>
+      </c>
+      <c r="G471">
+        <v>0.5032564697265625</v>
+      </c>
+      <c r="H471" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>477</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0.49517333984375</v>
+      </c>
+      <c r="G472">
+        <v>0.50482666015625</v>
+      </c>
+      <c r="H472" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>478</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>0.4965661010742188</v>
+      </c>
+      <c r="G473">
+        <v>0.5034338989257813</v>
+      </c>
+      <c r="H473" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="678">
   <si>
     <t>date</t>
   </si>
@@ -1451,6 +1451,15 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
   </si>
   <si>
     <t>52.14</t>
@@ -2396,7 +2405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2448,7 +2457,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2474,7 +2483,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2500,7 +2509,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2526,7 +2535,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2552,7 +2561,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2578,7 +2587,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2604,7 +2613,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2630,7 +2639,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2656,7 +2665,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2682,7 +2691,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2708,7 +2717,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2734,7 +2743,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2760,7 +2769,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2786,7 +2795,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2812,7 +2821,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2838,7 +2847,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2864,7 +2873,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2890,7 +2899,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2916,7 +2925,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2942,7 +2951,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2968,7 +2977,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2994,7 +3003,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3020,7 +3029,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3046,7 +3055,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3072,7 +3081,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3098,7 +3107,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3124,7 +3133,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3150,7 +3159,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3176,7 +3185,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3202,7 +3211,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3228,7 +3237,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3254,7 +3263,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3280,7 +3289,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3306,7 +3315,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3332,7 +3341,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3358,7 +3367,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3384,7 +3393,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3410,7 +3419,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3436,7 +3445,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3462,7 +3471,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3488,7 +3497,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3514,7 +3523,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3540,7 +3549,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3566,7 +3575,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3592,7 +3601,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3618,7 +3627,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3644,7 +3653,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3670,7 +3679,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3696,7 +3705,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3722,7 +3731,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3748,7 +3757,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3774,7 +3783,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3800,7 +3809,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3826,7 +3835,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3852,7 +3861,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3878,7 +3887,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3904,7 +3913,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3930,7 +3939,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3956,7 +3965,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3982,7 +3991,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4008,7 +4017,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4034,7 +4043,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4060,7 +4069,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4086,7 +4095,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4112,7 +4121,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4138,7 +4147,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4164,7 +4173,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4190,7 +4199,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4216,7 +4225,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4242,7 +4251,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4268,7 +4277,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4294,7 +4303,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4320,7 +4329,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4346,7 +4355,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4372,7 +4381,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4398,7 +4407,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4424,7 +4433,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4450,7 +4459,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4476,7 +4485,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4502,7 +4511,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4528,7 +4537,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4554,7 +4563,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4580,7 +4589,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4606,7 +4615,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4632,7 +4641,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4658,7 +4667,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4684,7 +4693,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4710,7 +4719,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4736,7 +4745,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4762,7 +4771,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4788,7 +4797,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4814,7 +4823,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4840,7 +4849,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4866,7 +4875,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4892,7 +4901,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4918,7 +4927,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4944,7 +4953,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4970,7 +4979,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4996,7 +5005,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5022,7 +5031,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5048,7 +5057,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5074,7 +5083,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5100,7 +5109,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5126,7 +5135,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5152,7 +5161,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5178,7 +5187,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5204,7 +5213,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5230,7 +5239,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5256,7 +5265,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5282,7 +5291,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5308,7 +5317,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5334,7 +5343,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5360,7 +5369,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5386,7 +5395,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5412,7 +5421,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5438,7 +5447,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5464,7 +5473,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5490,7 +5499,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5516,7 +5525,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5542,7 +5551,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5568,7 +5577,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5594,7 +5603,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5620,7 +5629,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5646,7 +5655,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5672,7 +5681,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5698,7 +5707,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5724,7 +5733,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5750,7 +5759,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5776,7 +5785,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5802,7 +5811,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5828,7 +5837,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5854,7 +5863,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5880,7 +5889,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5906,7 +5915,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5932,7 +5941,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5958,7 +5967,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5984,7 +5993,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6010,7 +6019,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6036,7 +6045,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6062,7 +6071,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6088,7 +6097,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6114,7 +6123,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6140,7 +6149,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6166,7 +6175,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6192,7 +6201,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6218,7 +6227,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6244,7 +6253,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6270,7 +6279,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6296,7 +6305,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6322,7 +6331,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6348,7 +6357,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6374,7 +6383,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6400,7 +6409,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6426,7 +6435,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6452,7 +6461,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6478,7 +6487,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6504,7 +6513,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6530,7 +6539,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6556,7 +6565,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6582,7 +6591,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6608,7 +6617,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6634,7 +6643,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6660,7 +6669,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6686,7 +6695,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6712,7 +6721,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6738,7 +6747,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6764,7 +6773,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6790,7 +6799,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6816,7 +6825,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6842,7 +6851,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6868,7 +6877,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6894,7 +6903,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6920,7 +6929,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6946,7 +6955,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6972,7 +6981,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6998,7 +7007,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7024,7 +7033,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7050,7 +7059,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7076,7 +7085,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7102,7 +7111,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7128,7 +7137,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7154,7 +7163,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7180,7 +7189,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7206,7 +7215,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7232,7 +7241,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7258,7 +7267,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7284,7 +7293,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7310,7 +7319,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7336,7 +7345,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7362,7 +7371,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7388,7 +7397,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7414,7 +7423,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7440,7 +7449,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7466,7 +7475,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7492,7 +7501,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7518,7 +7527,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7544,7 +7553,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7570,7 +7579,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7596,7 +7605,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7622,7 +7631,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7648,7 +7657,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7674,7 +7683,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7700,7 +7709,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7726,7 +7735,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7752,7 +7761,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7778,7 +7787,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7804,7 +7813,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7830,7 +7839,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7856,7 +7865,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7882,7 +7891,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7908,7 +7917,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7934,7 +7943,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7960,7 +7969,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7986,7 +7995,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8012,7 +8021,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8038,7 +8047,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8064,7 +8073,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8090,7 +8099,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8116,7 +8125,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8142,7 +8151,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8168,7 +8177,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8194,7 +8203,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8220,7 +8229,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8246,7 +8255,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8272,7 +8281,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8298,7 +8307,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8324,7 +8333,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8350,7 +8359,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8376,7 +8385,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8402,7 +8411,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8428,7 +8437,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8454,7 +8463,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8480,7 +8489,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8506,7 +8515,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8532,7 +8541,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8558,7 +8567,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8584,7 +8593,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8610,7 +8619,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8636,7 +8645,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8662,7 +8671,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8688,7 +8697,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8714,7 +8723,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8740,7 +8749,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8766,7 +8775,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8792,7 +8801,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8818,7 +8827,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8844,7 +8853,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8870,7 +8879,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8896,7 +8905,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8922,7 +8931,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8948,7 +8957,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8974,7 +8983,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9000,7 +9009,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9026,7 +9035,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9052,7 +9061,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9078,7 +9087,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9104,7 +9113,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9130,7 +9139,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9156,7 +9165,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9182,7 +9191,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9208,7 +9217,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9234,7 +9243,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9260,7 +9269,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9286,7 +9295,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9312,7 +9321,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9338,7 +9347,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9364,7 +9373,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9390,7 +9399,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9416,7 +9425,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9442,7 +9451,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9468,7 +9477,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9494,7 +9503,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9520,7 +9529,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9546,7 +9555,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9572,7 +9581,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9598,7 +9607,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9624,7 +9633,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9650,7 +9659,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9676,7 +9685,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9702,7 +9711,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9728,7 +9737,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9754,7 +9763,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9780,7 +9789,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9806,7 +9815,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9832,7 +9841,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9858,7 +9867,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9884,7 +9893,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9910,7 +9919,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9936,7 +9945,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9962,7 +9971,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9988,7 +9997,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10014,7 +10023,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10040,7 +10049,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10066,7 +10075,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10092,7 +10101,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10118,7 +10127,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10144,7 +10153,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10170,7 +10179,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10196,7 +10205,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10222,7 +10231,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10248,7 +10257,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10274,7 +10283,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10300,7 +10309,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10326,7 +10335,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10352,7 +10361,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10378,7 +10387,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10404,7 +10413,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10430,7 +10439,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10456,7 +10465,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10482,7 +10491,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10508,7 +10517,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10534,7 +10543,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10560,7 +10569,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10586,7 +10595,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10612,7 +10621,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10638,7 +10647,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10664,7 +10673,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10690,7 +10699,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10716,7 +10725,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10742,7 +10751,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10768,7 +10777,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10794,7 +10803,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10820,7 +10829,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10846,7 +10855,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10872,7 +10881,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10898,7 +10907,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10924,7 +10933,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10950,7 +10959,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10976,7 +10985,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11002,7 +11011,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11028,7 +11037,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11054,7 +11063,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11080,7 +11089,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11106,7 +11115,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11132,7 +11141,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11158,7 +11167,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11184,7 +11193,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11210,7 +11219,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11236,7 +11245,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11262,7 +11271,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11288,7 +11297,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11314,7 +11323,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11340,7 +11349,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11366,7 +11375,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11392,7 +11401,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11418,7 +11427,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11444,7 +11453,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11470,7 +11479,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11496,7 +11505,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11522,7 +11531,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11548,7 +11557,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11574,7 +11583,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11600,7 +11609,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11626,7 +11635,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11652,7 +11661,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11678,7 +11687,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11704,7 +11713,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11730,7 +11739,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11756,7 +11765,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11782,7 +11791,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11808,7 +11817,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11834,7 +11843,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11860,7 +11869,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11886,7 +11895,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11912,7 +11921,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11938,7 +11947,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11964,7 +11973,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11990,7 +11999,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12016,7 +12025,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12042,7 +12051,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12068,7 +12077,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12094,7 +12103,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12120,7 +12129,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12146,7 +12155,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12172,7 +12181,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12198,7 +12207,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12224,7 +12233,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12250,7 +12259,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12276,7 +12285,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12302,7 +12311,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12328,7 +12337,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12354,7 +12363,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12380,7 +12389,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12406,7 +12415,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12432,7 +12441,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12458,7 +12467,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12484,7 +12493,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12510,7 +12519,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12536,7 +12545,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12562,7 +12571,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12588,7 +12597,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12614,7 +12623,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12640,7 +12649,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12666,7 +12675,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12692,7 +12701,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12718,7 +12727,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12744,7 +12753,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12770,7 +12779,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12796,7 +12805,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12822,7 +12831,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12848,7 +12857,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12874,7 +12883,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12900,7 +12909,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12926,7 +12935,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12952,7 +12961,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12978,7 +12987,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13004,7 +13013,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13030,7 +13039,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13056,7 +13065,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13082,7 +13091,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13108,7 +13117,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13134,7 +13143,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13160,7 +13169,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13186,7 +13195,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13212,7 +13221,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13238,7 +13247,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13264,7 +13273,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13290,7 +13299,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13316,7 +13325,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13342,7 +13351,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13368,7 +13377,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13394,7 +13403,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13420,7 +13429,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13446,7 +13455,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13472,7 +13481,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13498,7 +13507,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13524,7 +13533,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13550,7 +13559,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13576,7 +13585,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13602,7 +13611,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13628,7 +13637,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13654,7 +13663,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13680,7 +13689,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13706,7 +13715,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13732,7 +13741,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13758,7 +13767,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13784,7 +13793,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13810,7 +13819,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13836,7 +13845,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13862,7 +13871,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13888,7 +13897,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13914,7 +13923,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13940,7 +13949,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13966,7 +13975,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13992,7 +14001,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14018,7 +14027,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14044,7 +14053,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14070,7 +14079,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14096,7 +14105,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14122,7 +14131,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14148,7 +14157,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14174,7 +14183,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14200,7 +14209,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14226,7 +14235,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14252,7 +14261,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14278,7 +14287,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14304,7 +14313,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14330,7 +14339,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14356,7 +14365,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14382,7 +14391,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14408,7 +14417,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14434,7 +14443,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14460,7 +14469,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14486,7 +14495,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14512,7 +14521,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14538,7 +14547,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14564,7 +14573,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14590,7 +14599,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14616,7 +14625,7 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14642,7 +14651,7 @@
         <v>0.5032564697265625</v>
       </c>
       <c r="H471" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14668,7 +14677,7 @@
         <v>0.50482666015625</v>
       </c>
       <c r="H472" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14678,7 +14687,13 @@
       <c r="B473" t="s">
         <v>478</v>
       </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
       <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
         <v>1</v>
       </c>
       <c r="F473">
@@ -14688,7 +14703,79 @@
         <v>0.5034338989257813</v>
       </c>
       <c r="H473" t="s">
-        <v>557</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>479</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0.4958868408203125</v>
+      </c>
+      <c r="G474">
+        <v>0.5041131591796875</v>
+      </c>
+      <c r="H474" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>480</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>0.4925242309570312</v>
+      </c>
+      <c r="G475">
+        <v>0.5074757690429688</v>
+      </c>
+      <c r="H475" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>481</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>0.4985178833007812</v>
+      </c>
+      <c r="G476">
+        <v>0.5014821166992188</v>
+      </c>
+      <c r="H476" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="687">
   <si>
     <t>date</t>
   </si>
@@ -1472,6 +1472,15 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
   </si>
   <si>
     <t>52.14</t>
@@ -2423,7 +2432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H480"/>
+  <dimension ref="A1:H483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2475,7 +2484,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2501,7 +2510,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2527,7 +2536,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2553,7 +2562,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2579,7 +2588,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2605,7 +2614,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2631,7 +2640,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2657,7 +2666,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2683,7 +2692,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2709,7 +2718,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2735,7 +2744,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2761,7 +2770,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2787,7 +2796,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2813,7 +2822,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2839,7 +2848,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2865,7 +2874,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2891,7 +2900,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2917,7 +2926,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2943,7 +2952,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2969,7 +2978,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2995,7 +3004,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3021,7 +3030,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3047,7 +3056,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3073,7 +3082,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3099,7 +3108,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3125,7 +3134,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3151,7 +3160,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3177,7 +3186,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3203,7 +3212,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3229,7 +3238,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3255,7 +3264,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3281,7 +3290,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3307,7 +3316,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3333,7 +3342,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3359,7 +3368,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3385,7 +3394,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3411,7 +3420,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3437,7 +3446,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3463,7 +3472,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3489,7 +3498,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3515,7 +3524,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3541,7 +3550,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3567,7 +3576,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3593,7 +3602,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3619,7 +3628,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3645,7 +3654,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3671,7 +3680,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3697,7 +3706,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3723,7 +3732,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3749,7 +3758,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3775,7 +3784,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3801,7 +3810,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3827,7 +3836,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3853,7 +3862,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3879,7 +3888,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3905,7 +3914,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3931,7 +3940,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3957,7 +3966,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3983,7 +3992,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4009,7 +4018,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4035,7 +4044,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4061,7 +4070,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4087,7 +4096,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4113,7 +4122,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4139,7 +4148,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4165,7 +4174,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4191,7 +4200,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4217,7 +4226,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4243,7 +4252,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4269,7 +4278,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4295,7 +4304,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4321,7 +4330,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4347,7 +4356,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4373,7 +4382,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4399,7 +4408,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4425,7 +4434,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4451,7 +4460,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4477,7 +4486,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4503,7 +4512,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4529,7 +4538,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4555,7 +4564,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4581,7 +4590,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4607,7 +4616,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4633,7 +4642,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4659,7 +4668,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4685,7 +4694,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4711,7 +4720,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4737,7 +4746,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4763,7 +4772,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4789,7 +4798,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4815,7 +4824,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4841,7 +4850,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4867,7 +4876,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4893,7 +4902,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4919,7 +4928,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4945,7 +4954,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4971,7 +4980,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4997,7 +5006,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5023,7 +5032,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5049,7 +5058,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5075,7 +5084,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5101,7 +5110,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5127,7 +5136,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5153,7 +5162,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5179,7 +5188,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5205,7 +5214,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5231,7 +5240,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5257,7 +5266,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5283,7 +5292,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5309,7 +5318,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5335,7 +5344,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5361,7 +5370,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5387,7 +5396,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5413,7 +5422,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5439,7 +5448,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5465,7 +5474,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5491,7 +5500,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5517,7 +5526,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5543,7 +5552,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5569,7 +5578,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5595,7 +5604,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5621,7 +5630,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5647,7 +5656,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5673,7 +5682,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5699,7 +5708,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5725,7 +5734,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5751,7 +5760,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5777,7 +5786,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5803,7 +5812,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5829,7 +5838,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5855,7 +5864,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5881,7 +5890,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5907,7 +5916,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5933,7 +5942,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5959,7 +5968,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5985,7 +5994,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6011,7 +6020,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6037,7 +6046,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6063,7 +6072,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6089,7 +6098,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6115,7 +6124,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6141,7 +6150,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6167,7 +6176,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6193,7 +6202,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6219,7 +6228,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6245,7 +6254,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6271,7 +6280,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6297,7 +6306,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6323,7 +6332,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6349,7 +6358,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6375,7 +6384,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6401,7 +6410,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6427,7 +6436,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6453,7 +6462,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6479,7 +6488,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6505,7 +6514,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6531,7 +6540,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6557,7 +6566,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6583,7 +6592,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6609,7 +6618,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6635,7 +6644,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6661,7 +6670,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6687,7 +6696,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6713,7 +6722,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6739,7 +6748,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6765,7 +6774,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6791,7 +6800,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6817,7 +6826,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6843,7 +6852,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6869,7 +6878,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6895,7 +6904,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6921,7 +6930,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6947,7 +6956,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6973,7 +6982,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6999,7 +7008,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7025,7 +7034,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7051,7 +7060,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7077,7 +7086,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7103,7 +7112,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7129,7 +7138,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7155,7 +7164,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7181,7 +7190,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7207,7 +7216,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7233,7 +7242,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7259,7 +7268,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7285,7 +7294,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7311,7 +7320,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7337,7 +7346,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7363,7 +7372,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7389,7 +7398,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7415,7 +7424,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7441,7 +7450,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7467,7 +7476,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7493,7 +7502,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7519,7 +7528,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7545,7 +7554,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7571,7 +7580,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7597,7 +7606,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7623,7 +7632,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7649,7 +7658,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7675,7 +7684,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7701,7 +7710,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7727,7 +7736,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7753,7 +7762,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7779,7 +7788,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7805,7 +7814,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7831,7 +7840,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7857,7 +7866,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7883,7 +7892,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7909,7 +7918,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7935,7 +7944,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7961,7 +7970,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7987,7 +7996,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8013,7 +8022,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8039,7 +8048,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8065,7 +8074,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8091,7 +8100,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8117,7 +8126,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8143,7 +8152,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8169,7 +8178,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8195,7 +8204,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8221,7 +8230,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8247,7 +8256,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8273,7 +8282,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8299,7 +8308,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8325,7 +8334,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8351,7 +8360,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8377,7 +8386,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8403,7 +8412,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8429,7 +8438,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8455,7 +8464,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8481,7 +8490,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8507,7 +8516,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8533,7 +8542,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8559,7 +8568,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8585,7 +8594,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8611,7 +8620,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8637,7 +8646,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8663,7 +8672,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8689,7 +8698,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8715,7 +8724,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8741,7 +8750,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8767,7 +8776,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8793,7 +8802,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8819,7 +8828,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8845,7 +8854,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8871,7 +8880,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8897,7 +8906,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8923,7 +8932,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8949,7 +8958,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8975,7 +8984,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9001,7 +9010,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9027,7 +9036,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9053,7 +9062,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9079,7 +9088,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9105,7 +9114,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9131,7 +9140,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9157,7 +9166,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9183,7 +9192,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9209,7 +9218,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9235,7 +9244,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9261,7 +9270,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9287,7 +9296,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9313,7 +9322,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9339,7 +9348,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9365,7 +9374,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9391,7 +9400,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9417,7 +9426,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9443,7 +9452,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9469,7 +9478,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9495,7 +9504,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9521,7 +9530,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9547,7 +9556,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9573,7 +9582,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9599,7 +9608,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9625,7 +9634,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9651,7 +9660,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9677,7 +9686,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9703,7 +9712,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9729,7 +9738,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9755,7 +9764,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9781,7 +9790,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9807,7 +9816,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9833,7 +9842,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9859,7 +9868,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9885,7 +9894,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9911,7 +9920,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9937,7 +9946,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9963,7 +9972,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9989,7 +9998,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10015,7 +10024,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10041,7 +10050,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10067,7 +10076,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10093,7 +10102,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10119,7 +10128,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10145,7 +10154,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10171,7 +10180,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10197,7 +10206,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10223,7 +10232,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10249,7 +10258,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10275,7 +10284,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10301,7 +10310,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10327,7 +10336,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10353,7 +10362,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10379,7 +10388,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10405,7 +10414,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10431,7 +10440,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10457,7 +10466,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10483,7 +10492,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10509,7 +10518,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10535,7 +10544,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10561,7 +10570,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10587,7 +10596,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10613,7 +10622,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10639,7 +10648,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10665,7 +10674,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10691,7 +10700,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10717,7 +10726,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10743,7 +10752,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10769,7 +10778,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10795,7 +10804,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10821,7 +10830,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10847,7 +10856,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10873,7 +10882,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10899,7 +10908,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10925,7 +10934,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10951,7 +10960,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10977,7 +10986,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11003,7 +11012,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11029,7 +11038,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11055,7 +11064,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11081,7 +11090,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11107,7 +11116,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11133,7 +11142,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11159,7 +11168,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11185,7 +11194,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11211,7 +11220,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11237,7 +11246,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11263,7 +11272,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11289,7 +11298,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11315,7 +11324,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11341,7 +11350,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11367,7 +11376,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11393,7 +11402,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11419,7 +11428,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11445,7 +11454,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11471,7 +11480,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11497,7 +11506,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11523,7 +11532,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11549,7 +11558,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11575,7 +11584,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11601,7 +11610,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11627,7 +11636,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11653,7 +11662,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11679,7 +11688,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11705,7 +11714,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11731,7 +11740,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11757,7 +11766,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11783,7 +11792,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11809,7 +11818,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11835,7 +11844,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11861,7 +11870,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11887,7 +11896,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11913,7 +11922,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11939,7 +11948,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11965,7 +11974,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11991,7 +12000,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12017,7 +12026,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12043,7 +12052,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12069,7 +12078,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12095,7 +12104,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12121,7 +12130,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12147,7 +12156,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12173,7 +12182,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12199,7 +12208,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12225,7 +12234,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12251,7 +12260,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12277,7 +12286,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12303,7 +12312,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12329,7 +12338,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12355,7 +12364,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12381,7 +12390,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12407,7 +12416,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12433,7 +12442,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12459,7 +12468,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12485,7 +12494,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12511,7 +12520,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12537,7 +12546,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12563,7 +12572,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12589,7 +12598,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12615,7 +12624,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12641,7 +12650,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12667,7 +12676,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12693,7 +12702,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12719,7 +12728,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12745,7 +12754,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12771,7 +12780,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12797,7 +12806,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12823,7 +12832,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12849,7 +12858,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12875,7 +12884,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12901,7 +12910,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12927,7 +12936,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12953,7 +12962,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12979,7 +12988,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13005,7 +13014,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13031,7 +13040,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13057,7 +13066,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13083,7 +13092,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13109,7 +13118,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13135,7 +13144,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13161,7 +13170,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13187,7 +13196,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13213,7 +13222,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13239,7 +13248,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13265,7 +13274,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13291,7 +13300,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13317,7 +13326,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13343,7 +13352,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13369,7 +13378,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13395,7 +13404,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13421,7 +13430,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13447,7 +13456,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13473,7 +13482,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13499,7 +13508,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13525,7 +13534,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13551,7 +13560,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13577,7 +13586,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13603,7 +13612,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13629,7 +13638,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13655,7 +13664,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13681,7 +13690,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13707,7 +13716,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13733,7 +13742,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13759,7 +13768,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13785,7 +13794,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13811,7 +13820,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13837,7 +13846,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13863,7 +13872,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13889,7 +13898,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13915,7 +13924,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13941,7 +13950,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13967,7 +13976,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13993,7 +14002,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14019,7 +14028,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14045,7 +14054,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14071,7 +14080,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14097,7 +14106,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14123,7 +14132,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14149,7 +14158,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14175,7 +14184,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14201,7 +14210,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14227,7 +14236,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14253,7 +14262,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14279,7 +14288,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14305,7 +14314,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14331,7 +14340,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14357,7 +14366,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14383,7 +14392,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14409,7 +14418,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14435,7 +14444,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14461,7 +14470,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14487,7 +14496,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14513,7 +14522,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14539,7 +14548,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14565,7 +14574,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14591,7 +14600,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14617,7 +14626,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14643,7 +14652,7 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14669,7 +14678,7 @@
         <v>0.5032564697265625</v>
       </c>
       <c r="H471" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14695,7 +14704,7 @@
         <v>0.50482666015625</v>
       </c>
       <c r="H472" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14721,7 +14730,7 @@
         <v>0.5034338989257813</v>
       </c>
       <c r="H473" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14747,7 +14756,7 @@
         <v>0.5041131591796875</v>
       </c>
       <c r="H474" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14773,7 +14782,7 @@
         <v>0.5074757690429688</v>
       </c>
       <c r="H475" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14799,7 +14808,7 @@
         <v>0.5014821166992188</v>
       </c>
       <c r="H476" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14825,7 +14834,7 @@
         <v>0.5082123413085937</v>
       </c>
       <c r="H477" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14851,7 +14860,7 @@
         <v>0.5144286499023437</v>
       </c>
       <c r="H478" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14877,7 +14886,7 @@
         <v>0.5009668579101563</v>
       </c>
       <c r="H479" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14887,8 +14896,14 @@
       <c r="B480" t="s">
         <v>485</v>
       </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
       <c r="D480">
         <v>1</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
       </c>
       <c r="F480">
         <v>0.4896863403320312</v>
@@ -14897,7 +14912,79 @@
         <v>0.5103136596679687</v>
       </c>
       <c r="H480" t="s">
-        <v>629</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>486</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481">
+        <v>0.49956298828125</v>
+      </c>
+      <c r="G481">
+        <v>0.50043701171875</v>
+      </c>
+      <c r="H481" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>487</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>0.4973090515136719</v>
+      </c>
+      <c r="G482">
+        <v>0.5026909484863281</v>
+      </c>
+      <c r="H482" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>488</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>0.4987024230957032</v>
+      </c>
+      <c r="G483">
+        <v>0.5012975769042969</v>
+      </c>
+      <c r="H483" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="688">
   <si>
     <t>date</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>52.14</t>
@@ -2432,7 +2435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H483"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2484,7 +2487,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2510,7 +2513,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2536,7 +2539,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2562,7 +2565,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2588,7 +2591,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2614,7 +2617,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2640,7 +2643,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2666,7 +2669,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2692,7 +2695,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2718,7 +2721,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2744,7 +2747,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2770,7 +2773,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2796,7 +2799,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2822,7 +2825,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2848,7 +2851,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2874,7 +2877,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2900,7 +2903,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2926,7 +2929,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2952,7 +2955,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2978,7 +2981,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3004,7 +3007,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3030,7 +3033,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3056,7 +3059,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3082,7 +3085,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3108,7 +3111,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3134,7 +3137,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3160,7 +3163,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3186,7 +3189,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3212,7 +3215,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3238,7 +3241,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3264,7 +3267,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3290,7 +3293,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3316,7 +3319,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3342,7 +3345,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3368,7 +3371,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3394,7 +3397,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3420,7 +3423,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3446,7 +3449,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3472,7 +3475,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3498,7 +3501,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3524,7 +3527,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3550,7 +3553,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3576,7 +3579,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3602,7 +3605,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3628,7 +3631,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3654,7 +3657,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3680,7 +3683,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3706,7 +3709,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3732,7 +3735,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3758,7 +3761,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3784,7 +3787,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3810,7 +3813,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3836,7 +3839,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3862,7 +3865,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3888,7 +3891,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3914,7 +3917,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3940,7 +3943,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3966,7 +3969,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3992,7 +3995,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4018,7 +4021,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4044,7 +4047,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4070,7 +4073,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4096,7 +4099,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4122,7 +4125,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4148,7 +4151,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4174,7 +4177,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4200,7 +4203,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4226,7 +4229,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4252,7 +4255,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4278,7 +4281,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4304,7 +4307,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4330,7 +4333,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4356,7 +4359,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4382,7 +4385,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4408,7 +4411,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4434,7 +4437,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4460,7 +4463,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4486,7 +4489,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4512,7 +4515,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4538,7 +4541,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4564,7 +4567,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4590,7 +4593,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4616,7 +4619,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4642,7 +4645,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4668,7 +4671,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4694,7 +4697,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4720,7 +4723,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4746,7 +4749,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4772,7 +4775,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4798,7 +4801,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4824,7 +4827,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4850,7 +4853,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4876,7 +4879,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4902,7 +4905,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4928,7 +4931,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4954,7 +4957,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4980,7 +4983,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5006,7 +5009,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5032,7 +5035,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5058,7 +5061,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5084,7 +5087,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5110,7 +5113,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5136,7 +5139,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5162,7 +5165,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5188,7 +5191,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5214,7 +5217,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5240,7 +5243,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5266,7 +5269,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5292,7 +5295,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5318,7 +5321,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5344,7 +5347,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5370,7 +5373,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5396,7 +5399,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5422,7 +5425,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5448,7 +5451,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5474,7 +5477,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5500,7 +5503,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5526,7 +5529,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5552,7 +5555,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5578,7 +5581,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5604,7 +5607,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5630,7 +5633,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5656,7 +5659,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5682,7 +5685,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5708,7 +5711,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5734,7 +5737,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5760,7 +5763,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5786,7 +5789,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5812,7 +5815,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5838,7 +5841,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5864,7 +5867,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5890,7 +5893,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5916,7 +5919,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5942,7 +5945,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5968,7 +5971,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5994,7 +5997,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6020,7 +6023,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6046,7 +6049,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6072,7 +6075,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6098,7 +6101,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6124,7 +6127,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6150,7 +6153,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6176,7 +6179,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6202,7 +6205,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6228,7 +6231,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6254,7 +6257,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6280,7 +6283,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6306,7 +6309,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6332,7 +6335,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6358,7 +6361,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6384,7 +6387,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6410,7 +6413,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6436,7 +6439,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6462,7 +6465,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6488,7 +6491,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6514,7 +6517,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6540,7 +6543,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6566,7 +6569,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6592,7 +6595,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6618,7 +6621,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6644,7 +6647,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6670,7 +6673,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6696,7 +6699,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6722,7 +6725,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6748,7 +6751,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6774,7 +6777,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6800,7 +6803,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6826,7 +6829,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6852,7 +6855,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6878,7 +6881,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6904,7 +6907,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6930,7 +6933,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6956,7 +6959,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6982,7 +6985,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7008,7 +7011,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7034,7 +7037,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7060,7 +7063,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7086,7 +7089,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7112,7 +7115,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7138,7 +7141,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7164,7 +7167,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7190,7 +7193,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7216,7 +7219,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7242,7 +7245,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7268,7 +7271,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7294,7 +7297,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7320,7 +7323,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7346,7 +7349,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7372,7 +7375,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7398,7 +7401,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7424,7 +7427,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7450,7 +7453,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7476,7 +7479,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7502,7 +7505,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7528,7 +7531,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7554,7 +7557,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7580,7 +7583,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7606,7 +7609,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7632,7 +7635,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7658,7 +7661,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7684,7 +7687,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7710,7 +7713,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7736,7 +7739,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7762,7 +7765,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7788,7 +7791,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7814,7 +7817,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7840,7 +7843,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7866,7 +7869,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7892,7 +7895,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7918,7 +7921,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7944,7 +7947,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7970,7 +7973,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7996,7 +7999,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8022,7 +8025,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8048,7 +8051,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8074,7 +8077,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8100,7 +8103,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8126,7 +8129,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8152,7 +8155,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8178,7 +8181,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8204,7 +8207,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8230,7 +8233,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8256,7 +8259,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8282,7 +8285,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8308,7 +8311,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8334,7 +8337,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8360,7 +8363,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8386,7 +8389,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8412,7 +8415,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8438,7 +8441,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8464,7 +8467,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8490,7 +8493,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8516,7 +8519,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8542,7 +8545,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8568,7 +8571,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8594,7 +8597,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8620,7 +8623,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8646,7 +8649,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8672,7 +8675,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8698,7 +8701,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8724,7 +8727,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8750,7 +8753,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8776,7 +8779,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8802,7 +8805,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8828,7 +8831,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8854,7 +8857,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8880,7 +8883,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8906,7 +8909,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8932,7 +8935,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8958,7 +8961,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8984,7 +8987,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9010,7 +9013,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9036,7 +9039,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9062,7 +9065,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9088,7 +9091,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9114,7 +9117,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9140,7 +9143,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9166,7 +9169,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9192,7 +9195,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9218,7 +9221,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9244,7 +9247,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9270,7 +9273,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9296,7 +9299,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9322,7 +9325,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9348,7 +9351,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9374,7 +9377,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9400,7 +9403,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9426,7 +9429,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9452,7 +9455,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9478,7 +9481,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9504,7 +9507,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9530,7 +9533,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9556,7 +9559,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9582,7 +9585,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9608,7 +9611,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9634,7 +9637,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9660,7 +9663,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9686,7 +9689,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9712,7 +9715,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9738,7 +9741,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9764,7 +9767,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9790,7 +9793,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9816,7 +9819,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9842,7 +9845,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9868,7 +9871,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9894,7 +9897,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9920,7 +9923,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9946,7 +9949,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9972,7 +9975,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9998,7 +10001,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10024,7 +10027,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10050,7 +10053,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10076,7 +10079,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10102,7 +10105,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10128,7 +10131,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10154,7 +10157,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10180,7 +10183,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10206,7 +10209,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10232,7 +10235,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10258,7 +10261,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10284,7 +10287,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10310,7 +10313,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10336,7 +10339,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10362,7 +10365,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10388,7 +10391,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10414,7 +10417,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10440,7 +10443,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10466,7 +10469,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10492,7 +10495,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10518,7 +10521,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10544,7 +10547,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10570,7 +10573,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10596,7 +10599,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10622,7 +10625,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10648,7 +10651,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10674,7 +10677,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10700,7 +10703,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10726,7 +10729,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10752,7 +10755,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10778,7 +10781,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10804,7 +10807,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10830,7 +10833,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10856,7 +10859,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10882,7 +10885,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10908,7 +10911,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10934,7 +10937,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10960,7 +10963,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10986,7 +10989,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11012,7 +11015,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11038,7 +11041,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11064,7 +11067,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11090,7 +11093,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11116,7 +11119,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11142,7 +11145,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11168,7 +11171,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11194,7 +11197,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11220,7 +11223,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11246,7 +11249,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11272,7 +11275,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11298,7 +11301,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11324,7 +11327,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11350,7 +11353,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11376,7 +11379,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11402,7 +11405,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11428,7 +11431,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11454,7 +11457,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11480,7 +11483,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11506,7 +11509,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11532,7 +11535,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11558,7 +11561,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11584,7 +11587,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11610,7 +11613,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11636,7 +11639,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11662,7 +11665,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11688,7 +11691,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11714,7 +11717,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11740,7 +11743,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11766,7 +11769,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11792,7 +11795,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11818,7 +11821,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11844,7 +11847,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11870,7 +11873,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11896,7 +11899,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11922,7 +11925,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11948,7 +11951,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11974,7 +11977,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12000,7 +12003,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12026,7 +12029,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12052,7 +12055,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12078,7 +12081,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12104,7 +12107,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12130,7 +12133,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12156,7 +12159,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12182,7 +12185,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12208,7 +12211,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12234,7 +12237,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12260,7 +12263,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12286,7 +12289,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12312,7 +12315,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12338,7 +12341,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12364,7 +12367,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12390,7 +12393,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12416,7 +12419,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12442,7 +12445,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12468,7 +12471,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12494,7 +12497,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12520,7 +12523,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12546,7 +12549,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12572,7 +12575,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12598,7 +12601,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12624,7 +12627,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12650,7 +12653,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12676,7 +12679,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12702,7 +12705,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12728,7 +12731,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12754,7 +12757,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12780,7 +12783,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12806,7 +12809,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12832,7 +12835,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12858,7 +12861,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12884,7 +12887,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12910,7 +12913,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12936,7 +12939,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12962,7 +12965,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12988,7 +12991,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13014,7 +13017,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13040,7 +13043,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13066,7 +13069,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13092,7 +13095,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13118,7 +13121,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13144,7 +13147,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13170,7 +13173,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13196,7 +13199,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13222,7 +13225,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13248,7 +13251,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13274,7 +13277,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13300,7 +13303,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13326,7 +13329,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13352,7 +13355,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13378,7 +13381,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13404,7 +13407,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13430,7 +13433,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13456,7 +13459,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13482,7 +13485,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13508,7 +13511,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13534,7 +13537,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13560,7 +13563,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13586,7 +13589,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13612,7 +13615,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13638,7 +13641,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13664,7 +13667,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13690,7 +13693,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13716,7 +13719,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13742,7 +13745,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13768,7 +13771,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13794,7 +13797,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13820,7 +13823,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13846,7 +13849,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13872,7 +13875,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13898,7 +13901,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13924,7 +13927,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13950,7 +13953,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13976,7 +13979,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14002,7 +14005,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14028,7 +14031,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14054,7 +14057,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14080,7 +14083,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14106,7 +14109,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14132,7 +14135,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14158,7 +14161,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14184,7 +14187,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14210,7 +14213,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14236,7 +14239,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14262,7 +14265,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14288,7 +14291,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14314,7 +14317,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14340,7 +14343,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14366,7 +14369,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14392,7 +14395,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14418,7 +14421,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14444,7 +14447,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14470,7 +14473,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14496,7 +14499,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14522,7 +14525,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14548,7 +14551,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14574,7 +14577,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14600,7 +14603,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14626,7 +14629,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14652,7 +14655,7 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14678,7 +14681,7 @@
         <v>0.5032564697265625</v>
       </c>
       <c r="H471" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14704,7 +14707,7 @@
         <v>0.50482666015625</v>
       </c>
       <c r="H472" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14730,7 +14733,7 @@
         <v>0.5034338989257813</v>
       </c>
       <c r="H473" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14756,7 +14759,7 @@
         <v>0.5041131591796875</v>
       </c>
       <c r="H474" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14782,7 +14785,7 @@
         <v>0.5074757690429688</v>
       </c>
       <c r="H475" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14808,7 +14811,7 @@
         <v>0.5014821166992188</v>
       </c>
       <c r="H476" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14834,7 +14837,7 @@
         <v>0.5082123413085937</v>
       </c>
       <c r="H477" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14860,7 +14863,7 @@
         <v>0.5144286499023437</v>
       </c>
       <c r="H478" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14886,7 +14889,7 @@
         <v>0.5009668579101563</v>
       </c>
       <c r="H479" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14912,7 +14915,7 @@
         <v>0.5103136596679687</v>
       </c>
       <c r="H480" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14938,7 +14941,7 @@
         <v>0.50043701171875</v>
       </c>
       <c r="H481" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14964,7 +14967,7 @@
         <v>0.5026909484863281</v>
       </c>
       <c r="H482" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14974,7 +14977,13 @@
       <c r="B483" t="s">
         <v>488</v>
       </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
       <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
         <v>1</v>
       </c>
       <c r="F483">
@@ -14984,7 +14993,27 @@
         <v>0.5012975769042969</v>
       </c>
       <c r="H483" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>489</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>0.4965972290039062</v>
+      </c>
+      <c r="G484">
+        <v>0.5034027709960938</v>
+      </c>
+      <c r="H484" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="695">
   <si>
     <t>date</t>
   </si>
@@ -1486,6 +1486,24 @@
     <t>2025-08-29</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
     <t>52.14</t>
   </si>
   <si>
@@ -2078,6 +2096,9 @@
   </si>
   <si>
     <t>51.44</t>
+  </si>
+  <si>
+    <t>50.85</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2487,7 +2508,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2513,7 +2534,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2539,7 +2560,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2565,7 +2586,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2591,7 +2612,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2617,7 +2638,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2643,7 +2664,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2669,7 +2690,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2695,7 +2716,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2721,7 +2742,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2747,7 +2768,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2773,7 +2794,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2799,7 +2820,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2825,7 +2846,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2851,7 +2872,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2877,7 +2898,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2903,7 +2924,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2929,7 +2950,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2955,7 +2976,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2981,7 +3002,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3007,7 +3028,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3033,7 +3054,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3059,7 +3080,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3085,7 +3106,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3111,7 +3132,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3137,7 +3158,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3163,7 +3184,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3189,7 +3210,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3215,7 +3236,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3241,7 +3262,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3267,7 +3288,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3293,7 +3314,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3319,7 +3340,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3345,7 +3366,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3371,7 +3392,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3397,7 +3418,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3423,7 +3444,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3449,7 +3470,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3475,7 +3496,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3501,7 +3522,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3527,7 +3548,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3553,7 +3574,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3579,7 +3600,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3605,7 +3626,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3631,7 +3652,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3657,7 +3678,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3683,7 +3704,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3709,7 +3730,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3735,7 +3756,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3761,7 +3782,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3787,7 +3808,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3813,7 +3834,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3839,7 +3860,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3865,7 +3886,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3891,7 +3912,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3917,7 +3938,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3943,7 +3964,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3969,7 +3990,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3995,7 +4016,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4021,7 +4042,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4047,7 +4068,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4073,7 +4094,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4099,7 +4120,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4125,7 +4146,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4151,7 +4172,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4177,7 +4198,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4203,7 +4224,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4229,7 +4250,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4255,7 +4276,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4281,7 +4302,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4307,7 +4328,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4333,7 +4354,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4359,7 +4380,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4385,7 +4406,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4411,7 +4432,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4437,7 +4458,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4463,7 +4484,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4489,7 +4510,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4515,7 +4536,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4541,7 +4562,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4567,7 +4588,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4593,7 +4614,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4619,7 +4640,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4645,7 +4666,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4671,7 +4692,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4697,7 +4718,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4723,7 +4744,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4749,7 +4770,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4775,7 +4796,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4801,7 +4822,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4827,7 +4848,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4853,7 +4874,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4879,7 +4900,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4905,7 +4926,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4931,7 +4952,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4957,7 +4978,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4983,7 +5004,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5009,7 +5030,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5035,7 +5056,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5061,7 +5082,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5087,7 +5108,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5113,7 +5134,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5139,7 +5160,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5165,7 +5186,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5191,7 +5212,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5217,7 +5238,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5243,7 +5264,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5269,7 +5290,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5295,7 +5316,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5321,7 +5342,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5347,7 +5368,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5373,7 +5394,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5399,7 +5420,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5425,7 +5446,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5451,7 +5472,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5477,7 +5498,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5503,7 +5524,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5529,7 +5550,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5555,7 +5576,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5581,7 +5602,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5607,7 +5628,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5633,7 +5654,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5659,7 +5680,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5685,7 +5706,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5711,7 +5732,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5737,7 +5758,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5763,7 +5784,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5789,7 +5810,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5815,7 +5836,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5841,7 +5862,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5867,7 +5888,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5893,7 +5914,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5919,7 +5940,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5945,7 +5966,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5971,7 +5992,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5997,7 +6018,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6023,7 +6044,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6049,7 +6070,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6075,7 +6096,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6101,7 +6122,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6127,7 +6148,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6153,7 +6174,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6179,7 +6200,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6205,7 +6226,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6231,7 +6252,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6257,7 +6278,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6283,7 +6304,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6309,7 +6330,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6335,7 +6356,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6361,7 +6382,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6387,7 +6408,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6413,7 +6434,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6439,7 +6460,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6465,7 +6486,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6491,7 +6512,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6517,7 +6538,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6543,7 +6564,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6569,7 +6590,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6595,7 +6616,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6621,7 +6642,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6647,7 +6668,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6673,7 +6694,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6699,7 +6720,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6725,7 +6746,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6751,7 +6772,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6777,7 +6798,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6803,7 +6824,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6829,7 +6850,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6855,7 +6876,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6881,7 +6902,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6907,7 +6928,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6933,7 +6954,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6959,7 +6980,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6985,7 +7006,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7011,7 +7032,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7037,7 +7058,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7063,7 +7084,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7089,7 +7110,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7115,7 +7136,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7141,7 +7162,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7167,7 +7188,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7193,7 +7214,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7219,7 +7240,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7245,7 +7266,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7271,7 +7292,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7297,7 +7318,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7323,7 +7344,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7349,7 +7370,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7375,7 +7396,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7401,7 +7422,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7427,7 +7448,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7453,7 +7474,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7479,7 +7500,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7505,7 +7526,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7531,7 +7552,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7557,7 +7578,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7583,7 +7604,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7609,7 +7630,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7635,7 +7656,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7661,7 +7682,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7687,7 +7708,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7713,7 +7734,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7739,7 +7760,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7765,7 +7786,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7791,7 +7812,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7817,7 +7838,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7843,7 +7864,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7869,7 +7890,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7895,7 +7916,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7921,7 +7942,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7947,7 +7968,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7973,7 +7994,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7999,7 +8020,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8025,7 +8046,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8051,7 +8072,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8077,7 +8098,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8103,7 +8124,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8129,7 +8150,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8155,7 +8176,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8181,7 +8202,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8207,7 +8228,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8233,7 +8254,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8259,7 +8280,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8285,7 +8306,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8311,7 +8332,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8337,7 +8358,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8363,7 +8384,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8389,7 +8410,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8415,7 +8436,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8441,7 +8462,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8467,7 +8488,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8493,7 +8514,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8519,7 +8540,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8545,7 +8566,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8571,7 +8592,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8597,7 +8618,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8623,7 +8644,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8649,7 +8670,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8675,7 +8696,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8701,7 +8722,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8727,7 +8748,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8753,7 +8774,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8779,7 +8800,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8805,7 +8826,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8831,7 +8852,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8857,7 +8878,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8883,7 +8904,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8909,7 +8930,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8935,7 +8956,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8961,7 +8982,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8987,7 +9008,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9013,7 +9034,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9039,7 +9060,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9065,7 +9086,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9091,7 +9112,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9117,7 +9138,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9143,7 +9164,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9169,7 +9190,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9195,7 +9216,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9221,7 +9242,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9247,7 +9268,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9273,7 +9294,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9299,7 +9320,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9325,7 +9346,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9351,7 +9372,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9377,7 +9398,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9403,7 +9424,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9429,7 +9450,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9455,7 +9476,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9481,7 +9502,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9507,7 +9528,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9533,7 +9554,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9559,7 +9580,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9585,7 +9606,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9611,7 +9632,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9637,7 +9658,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9663,7 +9684,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9689,7 +9710,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9715,7 +9736,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9741,7 +9762,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9767,7 +9788,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9793,7 +9814,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9819,7 +9840,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9845,7 +9866,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9871,7 +9892,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9897,7 +9918,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9923,7 +9944,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9949,7 +9970,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9975,7 +9996,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10001,7 +10022,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10027,7 +10048,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10053,7 +10074,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10079,7 +10100,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10105,7 +10126,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10131,7 +10152,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10157,7 +10178,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10183,7 +10204,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10209,7 +10230,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10235,7 +10256,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10261,7 +10282,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10287,7 +10308,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10313,7 +10334,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10339,7 +10360,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10365,7 +10386,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10391,7 +10412,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10417,7 +10438,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10443,7 +10464,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10469,7 +10490,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10495,7 +10516,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10521,7 +10542,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10547,7 +10568,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10573,7 +10594,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10599,7 +10620,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10625,7 +10646,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10651,7 +10672,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10677,7 +10698,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10703,7 +10724,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10729,7 +10750,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10755,7 +10776,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10781,7 +10802,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10807,7 +10828,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10833,7 +10854,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10859,7 +10880,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10885,7 +10906,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10911,7 +10932,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10937,7 +10958,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10963,7 +10984,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10989,7 +11010,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11015,7 +11036,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11041,7 +11062,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11067,7 +11088,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11093,7 +11114,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11119,7 +11140,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11145,7 +11166,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11171,7 +11192,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11197,7 +11218,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11223,7 +11244,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11249,7 +11270,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11275,7 +11296,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11301,7 +11322,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11327,7 +11348,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11353,7 +11374,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11379,7 +11400,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11405,7 +11426,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11431,7 +11452,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11457,7 +11478,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11483,7 +11504,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11509,7 +11530,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11535,7 +11556,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11561,7 +11582,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11587,7 +11608,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11613,7 +11634,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11639,7 +11660,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11665,7 +11686,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11691,7 +11712,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11717,7 +11738,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11743,7 +11764,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11769,7 +11790,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11795,7 +11816,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11821,7 +11842,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11847,7 +11868,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11873,7 +11894,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11899,7 +11920,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11925,7 +11946,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11951,7 +11972,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11977,7 +11998,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12003,7 +12024,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12029,7 +12050,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12055,7 +12076,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12081,7 +12102,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12107,7 +12128,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12133,7 +12154,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12159,7 +12180,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12185,7 +12206,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12211,7 +12232,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12237,7 +12258,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12263,7 +12284,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12289,7 +12310,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12315,7 +12336,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12341,7 +12362,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12367,7 +12388,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12393,7 +12414,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12419,7 +12440,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12445,7 +12466,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12471,7 +12492,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12497,7 +12518,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12523,7 +12544,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12549,7 +12570,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12575,7 +12596,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12601,7 +12622,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12627,7 +12648,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12653,7 +12674,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12679,7 +12700,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12705,7 +12726,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12731,7 +12752,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12757,7 +12778,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12783,7 +12804,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12809,7 +12830,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12835,7 +12856,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12861,7 +12882,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12887,7 +12908,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12913,7 +12934,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12939,7 +12960,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12965,7 +12986,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12991,7 +13012,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13017,7 +13038,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13043,7 +13064,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13069,7 +13090,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13095,7 +13116,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13121,7 +13142,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13147,7 +13168,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13173,7 +13194,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13199,7 +13220,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13225,7 +13246,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13251,7 +13272,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13277,7 +13298,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13303,7 +13324,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13329,7 +13350,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13355,7 +13376,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13381,7 +13402,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13407,7 +13428,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13433,7 +13454,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13459,7 +13480,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13485,7 +13506,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13511,7 +13532,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13537,7 +13558,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13563,7 +13584,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13589,7 +13610,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13615,7 +13636,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13641,7 +13662,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13667,7 +13688,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13693,7 +13714,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13719,7 +13740,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13745,7 +13766,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13771,7 +13792,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13797,7 +13818,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13823,7 +13844,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13849,7 +13870,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13875,7 +13896,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13901,7 +13922,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13927,7 +13948,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13953,7 +13974,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13979,7 +14000,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14005,7 +14026,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14031,7 +14052,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14057,7 +14078,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14083,7 +14104,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14109,7 +14130,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14135,7 +14156,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14161,7 +14182,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14187,7 +14208,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14213,7 +14234,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14239,7 +14260,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14265,7 +14286,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14291,7 +14312,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14317,7 +14338,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14343,7 +14364,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14369,7 +14390,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14395,7 +14416,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14421,7 +14442,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14447,7 +14468,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14473,7 +14494,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14499,7 +14520,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14525,7 +14546,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14551,7 +14572,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14577,7 +14598,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14603,7 +14624,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14629,7 +14650,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14655,7 +14676,7 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14681,7 +14702,7 @@
         <v>0.5032564697265625</v>
       </c>
       <c r="H471" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14707,7 +14728,7 @@
         <v>0.50482666015625</v>
       </c>
       <c r="H472" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14733,7 +14754,7 @@
         <v>0.5034338989257813</v>
       </c>
       <c r="H473" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14759,7 +14780,7 @@
         <v>0.5041131591796875</v>
       </c>
       <c r="H474" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14785,7 +14806,7 @@
         <v>0.5074757690429688</v>
       </c>
       <c r="H475" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14811,7 +14832,7 @@
         <v>0.5014821166992188</v>
       </c>
       <c r="H476" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14837,7 +14858,7 @@
         <v>0.5082123413085937</v>
       </c>
       <c r="H477" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14863,7 +14884,7 @@
         <v>0.5144286499023437</v>
       </c>
       <c r="H478" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14889,7 +14910,7 @@
         <v>0.5009668579101563</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14915,7 +14936,7 @@
         <v>0.5103136596679687</v>
       </c>
       <c r="H480" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14941,7 +14962,7 @@
         <v>0.50043701171875</v>
       </c>
       <c r="H481" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14967,7 +14988,7 @@
         <v>0.5026909484863281</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14993,7 +15014,7 @@
         <v>0.5012975769042969</v>
       </c>
       <c r="H483" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15003,8 +15024,14 @@
       <c r="B484" t="s">
         <v>489</v>
       </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
       <c r="D484">
         <v>1</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
       </c>
       <c r="F484">
         <v>0.4965972290039062</v>
@@ -15013,7 +15040,157 @@
         <v>0.5034027709960938</v>
       </c>
       <c r="H484" t="s">
-        <v>568</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>490</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>0.4917831420898438</v>
+      </c>
+      <c r="G485">
+        <v>0.5082168579101562</v>
+      </c>
+      <c r="H485" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>491</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>0.4884893798828125</v>
+      </c>
+      <c r="G486">
+        <v>0.5115106201171875</v>
+      </c>
+      <c r="H486" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>492</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>0.4914543151855469</v>
+      </c>
+      <c r="G487">
+        <v>0.5085456848144532</v>
+      </c>
+      <c r="H487" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>493</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0.4970732116699219</v>
+      </c>
+      <c r="G488">
+        <v>0.5029267883300781</v>
+      </c>
+      <c r="H488" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>494</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>0.4882293090820313</v>
+      </c>
+      <c r="G489">
+        <v>0.5117706909179688</v>
+      </c>
+      <c r="H489" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>495</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>0.490472412109375</v>
+      </c>
+      <c r="G490">
+        <v>0.509527587890625</v>
+      </c>
+      <c r="H490" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyMOC.xlsx
+++ b/firebase_data_from_spyMOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="698">
   <si>
     <t>date</t>
   </si>
@@ -1502,6 +1502,15 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>52.14</t>
@@ -2456,7 +2465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2508,7 +2517,7 @@
         <v>0.52139446</v>
       </c>
       <c r="H2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2534,7 +2543,7 @@
         <v>0.51862324</v>
       </c>
       <c r="H3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2560,7 +2569,7 @@
         <v>0.5195038000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2586,7 +2595,7 @@
         <v>0.52235394</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2612,7 +2621,7 @@
         <v>0.5101701</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2638,7 +2647,7 @@
         <v>0.5189516</v>
       </c>
       <c r="H7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2664,7 +2673,7 @@
         <v>0.51329384</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2690,7 +2699,7 @@
         <v>0.5027697</v>
       </c>
       <c r="H9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2716,7 +2725,7 @@
         <v>0.5235386</v>
       </c>
       <c r="H10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2742,7 +2751,7 @@
         <v>0.5085709399999999</v>
       </c>
       <c r="H11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2768,7 +2777,7 @@
         <v>0.50373253</v>
       </c>
       <c r="H12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2794,7 +2803,7 @@
         <v>0.49912422</v>
       </c>
       <c r="H13" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2820,7 +2829,7 @@
         <v>0.51183067</v>
       </c>
       <c r="H14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2846,7 +2855,7 @@
         <v>0.51319996</v>
       </c>
       <c r="H15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2872,7 +2881,7 @@
         <v>0.5088381199999999</v>
       </c>
       <c r="H16" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2898,7 +2907,7 @@
         <v>0.50683296</v>
       </c>
       <c r="H17" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2924,7 +2933,7 @@
         <v>0.5125885999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2950,7 +2959,7 @@
         <v>0.52464104</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2976,7 +2985,7 @@
         <v>0.52276917</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3002,7 +3011,7 @@
         <v>0.5067866999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3028,7 +3037,7 @@
         <v>0.5028353</v>
       </c>
       <c r="H22" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3054,7 +3063,7 @@
         <v>0.51181316</v>
       </c>
       <c r="H23" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3080,7 +3089,7 @@
         <v>0.5237284</v>
       </c>
       <c r="H24" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3106,7 +3115,7 @@
         <v>0.51848877</v>
       </c>
       <c r="H25" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3132,7 +3141,7 @@
         <v>0.51054787</v>
       </c>
       <c r="H26" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3158,7 +3167,7 @@
         <v>0.5113717</v>
       </c>
       <c r="H27" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3184,7 +3193,7 @@
         <v>0.51227257</v>
       </c>
       <c r="H28" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3210,7 +3219,7 @@
         <v>0.5120796599999999</v>
       </c>
       <c r="H29" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3236,7 +3245,7 @@
         <v>0.51367188</v>
       </c>
       <c r="H30" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3262,7 +3271,7 @@
         <v>0.50293568</v>
       </c>
       <c r="H31" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3288,7 +3297,7 @@
         <v>0.50546368</v>
       </c>
       <c r="H32" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3314,7 +3323,7 @@
         <v>0.49803738</v>
       </c>
       <c r="H33" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3340,7 +3349,7 @@
         <v>0.50990395</v>
       </c>
       <c r="H34" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3366,7 +3375,7 @@
         <v>0.5102463</v>
       </c>
       <c r="H35" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3392,7 +3401,7 @@
         <v>0.5015419800000001</v>
       </c>
       <c r="H36" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3418,7 +3427,7 @@
         <v>0.5204537</v>
       </c>
       <c r="H37" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3444,7 +3453,7 @@
         <v>0.50239994</v>
       </c>
       <c r="H38" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3470,7 +3479,7 @@
         <v>0.50068726</v>
       </c>
       <c r="H39" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3496,7 +3505,7 @@
         <v>0.5104943</v>
       </c>
       <c r="H40" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3522,7 +3531,7 @@
         <v>0.50568714</v>
       </c>
       <c r="H41" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3548,7 +3557,7 @@
         <v>0.5013752</v>
       </c>
       <c r="H42" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3574,7 +3583,7 @@
         <v>0.49941643</v>
       </c>
       <c r="H43" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3600,7 +3609,7 @@
         <v>0.49696987</v>
       </c>
       <c r="H44" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3626,7 +3635,7 @@
         <v>0.49771664</v>
       </c>
       <c r="H45" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3652,7 +3661,7 @@
         <v>0.50293007</v>
       </c>
       <c r="H46" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3678,7 +3687,7 @@
         <v>0.5064069400000001</v>
       </c>
       <c r="H47" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3704,7 +3713,7 @@
         <v>0.50835094</v>
       </c>
       <c r="H48" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3730,7 +3739,7 @@
         <v>0.51186382</v>
       </c>
       <c r="H49" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3756,7 +3765,7 @@
         <v>0.5045615</v>
       </c>
       <c r="H50" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3782,7 +3791,7 @@
         <v>0.50591736</v>
       </c>
       <c r="H51" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3808,7 +3817,7 @@
         <v>0.50524117</v>
       </c>
       <c r="H52" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3834,7 +3843,7 @@
         <v>0.50553436</v>
       </c>
       <c r="H53" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3860,7 +3869,7 @@
         <v>0.50919613</v>
       </c>
       <c r="H54" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3886,7 +3895,7 @@
         <v>0.5028758</v>
       </c>
       <c r="H55" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3912,7 +3921,7 @@
         <v>0.50753693</v>
       </c>
       <c r="H56" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3938,7 +3947,7 @@
         <v>0.51940113</v>
       </c>
       <c r="H57" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3964,7 +3973,7 @@
         <v>0.5335673</v>
       </c>
       <c r="H58" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3990,7 +3999,7 @@
         <v>0.5433669</v>
       </c>
       <c r="H59" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4016,7 +4025,7 @@
         <v>0.50866055</v>
       </c>
       <c r="H60" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4042,7 +4051,7 @@
         <v>0.50483356</v>
       </c>
       <c r="H61" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4068,7 +4077,7 @@
         <v>0.52286674</v>
       </c>
       <c r="H62" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4094,7 +4103,7 @@
         <v>0.51611</v>
       </c>
       <c r="H63" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4120,7 +4129,7 @@
         <v>0.5040564</v>
       </c>
       <c r="H64" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4146,7 +4155,7 @@
         <v>0.500204</v>
       </c>
       <c r="H65" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4172,7 +4181,7 @@
         <v>0.5065961999999999</v>
       </c>
       <c r="H66" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4198,7 +4207,7 @@
         <v>0.50733692</v>
       </c>
       <c r="H67" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4224,7 +4233,7 @@
         <v>0.52905113</v>
       </c>
       <c r="H68" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4250,7 +4259,7 @@
         <v>0.52920532</v>
       </c>
       <c r="H69" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4276,7 +4285,7 @@
         <v>0.51704903</v>
       </c>
       <c r="H70" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4302,7 +4311,7 @@
         <v>0.51415215</v>
       </c>
       <c r="H71" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4328,7 +4337,7 @@
         <v>0.51002113</v>
       </c>
       <c r="H72" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4354,7 +4363,7 @@
         <v>0.5050521</v>
       </c>
       <c r="H73" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4380,7 +4389,7 @@
         <v>0.5063091</v>
       </c>
       <c r="H74" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4406,7 +4415,7 @@
         <v>0.5048180800000001</v>
       </c>
       <c r="H75" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4432,7 +4441,7 @@
         <v>0.5068845400000001</v>
       </c>
       <c r="H76" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4458,7 +4467,7 @@
         <v>0.50222694</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4484,7 +4493,7 @@
         <v>0.5124694000000001</v>
       </c>
       <c r="H78" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4510,7 +4519,7 @@
         <v>0.50467964</v>
       </c>
       <c r="H79" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4536,7 +4545,7 @@
         <v>0.5143152</v>
       </c>
       <c r="H80" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4562,7 +4571,7 @@
         <v>0.52559155</v>
       </c>
       <c r="H81" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4588,7 +4597,7 @@
         <v>0.5073906699999999</v>
       </c>
       <c r="H82" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4614,7 +4623,7 @@
         <v>0.4998183</v>
       </c>
       <c r="H83" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4640,7 +4649,7 @@
         <v>0.51185356</v>
       </c>
       <c r="H84" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4666,7 +4675,7 @@
         <v>0.50734398</v>
       </c>
       <c r="H85" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4692,7 +4701,7 @@
         <v>0.51181705</v>
       </c>
       <c r="H86" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4718,7 +4727,7 @@
         <v>0.5046257399999999</v>
       </c>
       <c r="H87" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4744,7 +4753,7 @@
         <v>0.50202183</v>
       </c>
       <c r="H88" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4770,7 +4779,7 @@
         <v>0.53409443</v>
       </c>
       <c r="H89" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4796,7 +4805,7 @@
         <v>0.5133738</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4822,7 +4831,7 @@
         <v>0.5162415299999999</v>
       </c>
       <c r="H91" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4848,7 +4857,7 @@
         <v>0.50707474</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4874,7 +4883,7 @@
         <v>0.50194633</v>
       </c>
       <c r="H93" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4900,7 +4909,7 @@
         <v>0.5125542399999999</v>
       </c>
       <c r="H94" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4926,7 +4935,7 @@
         <v>0.50545082</v>
       </c>
       <c r="H95" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4952,7 +4961,7 @@
         <v>0.5039102</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4978,7 +4987,7 @@
         <v>0.5033683</v>
       </c>
       <c r="H97" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5004,7 +5013,7 @@
         <v>0.52845085</v>
       </c>
       <c r="H98" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5030,7 +5039,7 @@
         <v>0.50561604</v>
       </c>
       <c r="H99" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5056,7 +5065,7 @@
         <v>0.50103172</v>
       </c>
       <c r="H100" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5082,7 +5091,7 @@
         <v>0.51151463</v>
       </c>
       <c r="H101" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5108,7 +5117,7 @@
         <v>0.50524166</v>
       </c>
       <c r="H102" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5134,7 +5143,7 @@
         <v>0.50266293</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5160,7 +5169,7 @@
         <v>0.5084372700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5186,7 +5195,7 @@
         <v>0.5026421</v>
       </c>
       <c r="H105" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5212,7 +5221,7 @@
         <v>0.49942234</v>
       </c>
       <c r="H106" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5238,7 +5247,7 @@
         <v>0.50001373</v>
       </c>
       <c r="H107" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5264,7 +5273,7 @@
         <v>0.5020832</v>
       </c>
       <c r="H108" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5290,7 +5299,7 @@
         <v>0.5149604999999999</v>
       </c>
       <c r="H109" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5316,7 +5325,7 @@
         <v>0.51035206</v>
       </c>
       <c r="H110" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5342,7 +5351,7 @@
         <v>0.50348858</v>
       </c>
       <c r="H111" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5368,7 +5377,7 @@
         <v>0.50483925</v>
       </c>
       <c r="H112" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5394,7 +5403,7 @@
         <v>0.5054205000000001</v>
       </c>
       <c r="H113" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5420,7 +5429,7 @@
         <v>0.5040724</v>
       </c>
       <c r="H114" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5446,7 +5455,7 @@
         <v>0.5109932700000001</v>
       </c>
       <c r="H115" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5472,7 +5481,7 @@
         <v>0.50286537</v>
       </c>
       <c r="H116" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5498,7 +5507,7 @@
         <v>0.5079538</v>
       </c>
       <c r="H117" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5524,7 +5533,7 @@
         <v>0.5003366499999999</v>
       </c>
       <c r="H118" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5550,7 +5559,7 @@
         <v>0.52642498</v>
       </c>
       <c r="H119" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5576,7 +5585,7 @@
         <v>0.5270058399999999</v>
       </c>
       <c r="H120" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5602,7 +5611,7 @@
         <v>0.51302105</v>
       </c>
       <c r="H121" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5628,7 +5637,7 @@
         <v>0.5036247</v>
       </c>
       <c r="H122" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5654,7 +5663,7 @@
         <v>0.50233078</v>
       </c>
       <c r="H123" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5680,7 +5689,7 @@
         <v>0.5002179</v>
       </c>
       <c r="H124" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5706,7 +5715,7 @@
         <v>0.5076073</v>
       </c>
       <c r="H125" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5732,7 +5741,7 @@
         <v>0.4948651</v>
       </c>
       <c r="H126" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5758,7 +5767,7 @@
         <v>0.5010202</v>
       </c>
       <c r="H127" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5784,7 +5793,7 @@
         <v>0.50814903</v>
       </c>
       <c r="H128" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5810,7 +5819,7 @@
         <v>0.5175376</v>
       </c>
       <c r="H129" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5836,7 +5845,7 @@
         <v>0.49888542</v>
       </c>
       <c r="H130" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5862,7 +5871,7 @@
         <v>0.5072365</v>
       </c>
       <c r="H131" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5888,7 +5897,7 @@
         <v>0.51702282</v>
       </c>
       <c r="H132" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5914,7 +5923,7 @@
         <v>0.51854523</v>
       </c>
       <c r="H133" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5940,7 +5949,7 @@
         <v>0.5039431</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5966,7 +5975,7 @@
         <v>0.4961593</v>
       </c>
       <c r="H135" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5992,7 +6001,7 @@
         <v>0.5006604</v>
       </c>
       <c r="H136" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6018,7 +6027,7 @@
         <v>0.50893955</v>
       </c>
       <c r="H137" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6044,7 +6053,7 @@
         <v>0.50098125</v>
       </c>
       <c r="H138" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6070,7 +6079,7 @@
         <v>0.5098116300000001</v>
       </c>
       <c r="H139" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6096,7 +6105,7 @@
         <v>0.51906727</v>
       </c>
       <c r="H140" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6122,7 +6131,7 @@
         <v>0.5005601</v>
       </c>
       <c r="H141" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6148,7 +6157,7 @@
         <v>0.5020368200000001</v>
       </c>
       <c r="H142" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6174,7 +6183,7 @@
         <v>0.5026629</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6200,7 +6209,7 @@
         <v>0.51269264</v>
       </c>
       <c r="H144" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6226,7 +6235,7 @@
         <v>0.5022056</v>
       </c>
       <c r="H145" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6252,7 +6261,7 @@
         <v>0.4976379</v>
       </c>
       <c r="H146" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6278,7 +6287,7 @@
         <v>0.4992913</v>
       </c>
       <c r="H147" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6304,7 +6313,7 @@
         <v>0.50048954</v>
       </c>
       <c r="H148" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6330,7 +6339,7 @@
         <v>0.4984252</v>
       </c>
       <c r="H149" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6356,7 +6365,7 @@
         <v>0.4952061</v>
       </c>
       <c r="H150" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6382,7 +6391,7 @@
         <v>0.5063669199999999</v>
       </c>
       <c r="H151" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6408,7 +6417,7 @@
         <v>0.5073037</v>
       </c>
       <c r="H152" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6434,7 +6443,7 @@
         <v>0.5002860600000001</v>
       </c>
       <c r="H153" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6460,7 +6469,7 @@
         <v>0.5038385000000001</v>
       </c>
       <c r="H154" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6486,7 +6495,7 @@
         <v>0.4981495</v>
       </c>
       <c r="H155" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6512,7 +6521,7 @@
         <v>0.50110405</v>
       </c>
       <c r="H156" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6538,7 +6547,7 @@
         <v>0.5019393</v>
       </c>
       <c r="H157" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6564,7 +6573,7 @@
         <v>0.49749397</v>
       </c>
       <c r="H158" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6590,7 +6599,7 @@
         <v>0.49787163</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6616,7 +6625,7 @@
         <v>0.49512646</v>
       </c>
       <c r="H160" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6642,7 +6651,7 @@
         <v>0.50112682</v>
       </c>
       <c r="H161" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6668,7 +6677,7 @@
         <v>0.4998954</v>
       </c>
       <c r="H162" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6694,7 +6703,7 @@
         <v>0.4984842</v>
       </c>
       <c r="H163" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6720,7 +6729,7 @@
         <v>0.50056305</v>
       </c>
       <c r="H164" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6746,7 +6755,7 @@
         <v>0.50104954</v>
       </c>
       <c r="H165" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6772,7 +6781,7 @@
         <v>0.49627846</v>
       </c>
       <c r="H166" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6798,7 +6807,7 @@
         <v>0.49837242</v>
       </c>
       <c r="H167" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6824,7 +6833,7 @@
         <v>0.50090687</v>
       </c>
       <c r="H168" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6850,7 +6859,7 @@
         <v>0.49808235</v>
       </c>
       <c r="H169" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6876,7 +6885,7 @@
         <v>0.497147</v>
       </c>
       <c r="H170" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6902,7 +6911,7 @@
         <v>0.4979903</v>
       </c>
       <c r="H171" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6928,7 +6937,7 @@
         <v>0.4996162</v>
       </c>
       <c r="H172" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6954,7 +6963,7 @@
         <v>0.51750042</v>
       </c>
       <c r="H173" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6980,7 +6989,7 @@
         <v>0.49864494</v>
       </c>
       <c r="H174" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7006,7 +7015,7 @@
         <v>0.5024267600000001</v>
       </c>
       <c r="H175" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7032,7 +7041,7 @@
         <v>0.5001006</v>
       </c>
       <c r="H176" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7058,7 +7067,7 @@
         <v>0.5016813299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7084,7 +7093,7 @@
         <v>0.50222374</v>
       </c>
       <c r="H178" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7110,7 +7119,7 @@
         <v>0.5001812999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7136,7 +7145,7 @@
         <v>0.49909576</v>
       </c>
       <c r="H180" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7162,7 +7171,7 @@
         <v>0.5109303700000001</v>
       </c>
       <c r="H181" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7188,7 +7197,7 @@
         <v>0.49673756</v>
       </c>
       <c r="H182" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7214,7 +7223,7 @@
         <v>0.5000791499999999</v>
       </c>
       <c r="H183" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7240,7 +7249,7 @@
         <v>0.50150673</v>
       </c>
       <c r="H184" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7266,7 +7275,7 @@
         <v>0.50172962</v>
       </c>
       <c r="H185" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7292,7 +7301,7 @@
         <v>0.50569893</v>
       </c>
       <c r="H186" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7318,7 +7327,7 @@
         <v>0.5067636</v>
       </c>
       <c r="H187" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7344,7 +7353,7 @@
         <v>0.4985676</v>
       </c>
       <c r="H188" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7370,7 +7379,7 @@
         <v>0.49555843</v>
       </c>
       <c r="H189" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7396,7 +7405,7 @@
         <v>0.49635567</v>
       </c>
       <c r="H190" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7422,7 +7431,7 @@
         <v>0.49704525</v>
       </c>
       <c r="H191" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7448,7 +7457,7 @@
         <v>0.50768116</v>
       </c>
       <c r="H192" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7474,7 +7483,7 @@
         <v>0.4963353699999999</v>
       </c>
       <c r="H193" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7500,7 +7509,7 @@
         <v>0.49338055</v>
       </c>
       <c r="H194" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7526,7 +7535,7 @@
         <v>0.49426136</v>
       </c>
       <c r="H195" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7552,7 +7561,7 @@
         <v>0.49894573</v>
       </c>
       <c r="H196" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7578,7 +7587,7 @@
         <v>0.49547447</v>
       </c>
       <c r="H197" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7604,7 +7613,7 @@
         <v>0.49827015</v>
       </c>
       <c r="H198" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7630,7 +7639,7 @@
         <v>0.49847298</v>
       </c>
       <c r="H199" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7656,7 +7665,7 @@
         <v>0.49836803</v>
       </c>
       <c r="H200" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7682,7 +7691,7 @@
         <v>0.4988275</v>
       </c>
       <c r="H201" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7708,7 +7717,7 @@
         <v>0.4958469</v>
       </c>
       <c r="H202" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7734,7 +7743,7 @@
         <v>0.4993357</v>
       </c>
       <c r="H203" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7760,7 +7769,7 @@
         <v>0.5024662</v>
       </c>
       <c r="H204" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7786,7 +7795,7 @@
         <v>0.5019872</v>
       </c>
       <c r="H205" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7812,7 +7821,7 @@
         <v>0.507253</v>
       </c>
       <c r="H206" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7838,7 +7847,7 @@
         <v>0.4951160999999999</v>
       </c>
       <c r="H207" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7864,7 +7873,7 @@
         <v>0.4941296</v>
       </c>
       <c r="H208" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7890,7 +7899,7 @@
         <v>0.50540485</v>
       </c>
       <c r="H209" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7916,7 +7925,7 @@
         <v>0.4997238</v>
       </c>
       <c r="H210" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7942,7 +7951,7 @@
         <v>0.4986352</v>
       </c>
       <c r="H211" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7968,7 +7977,7 @@
         <v>0.49553627</v>
       </c>
       <c r="H212" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7994,7 +8003,7 @@
         <v>0.5000177</v>
       </c>
       <c r="H213" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8020,7 +8029,7 @@
         <v>0.5039428300000001</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8046,7 +8055,7 @@
         <v>0.50284363</v>
       </c>
       <c r="H215" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8072,7 +8081,7 @@
         <v>0.50652504</v>
       </c>
       <c r="H216" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8098,7 +8107,7 @@
         <v>0.54129303</v>
       </c>
       <c r="H217" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8124,7 +8133,7 @@
         <v>0.5110581</v>
       </c>
       <c r="H218" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8150,7 +8159,7 @@
         <v>0.52376446</v>
       </c>
       <c r="H219" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8176,7 +8185,7 @@
         <v>0.5138662000000001</v>
       </c>
       <c r="H220" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8202,7 +8211,7 @@
         <v>0.50593407</v>
       </c>
       <c r="H221" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8228,7 +8237,7 @@
         <v>0.5056536</v>
       </c>
       <c r="H222" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8254,7 +8263,7 @@
         <v>0.5010844800000001</v>
       </c>
       <c r="H223" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8280,7 +8289,7 @@
         <v>0.5059252</v>
       </c>
       <c r="H224" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8306,7 +8315,7 @@
         <v>0.5005317</v>
       </c>
       <c r="H225" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8332,7 +8341,7 @@
         <v>0.5001894</v>
       </c>
       <c r="H226" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8358,7 +8367,7 @@
         <v>0.4997461</v>
       </c>
       <c r="H227" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8384,7 +8393,7 @@
         <v>0.49592407</v>
       </c>
       <c r="H228" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8410,7 +8419,7 @@
         <v>0.49824547</v>
       </c>
       <c r="H229" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8436,7 +8445,7 @@
         <v>0.4989558</v>
       </c>
       <c r="H230" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8462,7 +8471,7 @@
         <v>0.49988274</v>
       </c>
       <c r="H231" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8488,7 +8497,7 @@
         <v>0.4976643</v>
       </c>
       <c r="H232" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8514,7 +8523,7 @@
         <v>0.4978302999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8540,7 +8549,7 @@
         <v>0.4992203</v>
       </c>
       <c r="H234" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8566,7 +8575,7 @@
         <v>0.4985883</v>
       </c>
       <c r="H235" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8592,7 +8601,7 @@
         <v>0.49906742</v>
       </c>
       <c r="H236" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8618,7 +8627,7 @@
         <v>0.49878727</v>
       </c>
       <c r="H237" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8644,7 +8653,7 @@
         <v>0.4972135</v>
       </c>
       <c r="H238" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8670,7 +8679,7 @@
         <v>0.49747734</v>
       </c>
       <c r="H239" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8696,7 +8705,7 @@
         <v>0.5054608</v>
       </c>
       <c r="H240" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8722,7 +8731,7 @@
         <v>0.5054366</v>
       </c>
       <c r="H241" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8748,7 +8757,7 @@
         <v>0.50486126</v>
       </c>
       <c r="H242" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8774,7 +8783,7 @@
         <v>0.50201668</v>
       </c>
       <c r="H243" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8800,7 +8809,7 @@
         <v>0.50131203</v>
       </c>
       <c r="H244" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8826,7 +8835,7 @@
         <v>0.50244118</v>
       </c>
       <c r="H245" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8852,7 +8861,7 @@
         <v>0.49898506</v>
       </c>
       <c r="H246" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8878,7 +8887,7 @@
         <v>0.4991206</v>
       </c>
       <c r="H247" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8904,7 +8913,7 @@
         <v>0.49918175</v>
       </c>
       <c r="H248" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8930,7 +8939,7 @@
         <v>0.5038433</v>
       </c>
       <c r="H249" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8956,7 +8965,7 @@
         <v>0.50356514</v>
       </c>
       <c r="H250" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8982,7 +8991,7 @@
         <v>0.5032679999999999</v>
       </c>
       <c r="H251" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9008,7 +9017,7 @@
         <v>0.4996067</v>
       </c>
       <c r="H252" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9034,7 +9043,7 @@
         <v>0.49916115</v>
       </c>
       <c r="H253" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9060,7 +9069,7 @@
         <v>0.5034419299999999</v>
       </c>
       <c r="H254" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9086,7 +9095,7 @@
         <v>0.4982131</v>
       </c>
       <c r="H255" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9112,7 +9121,7 @@
         <v>0.50472614</v>
       </c>
       <c r="H256" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9138,7 +9147,7 @@
         <v>0.5016518400000001</v>
       </c>
       <c r="H257" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9164,7 +9173,7 @@
         <v>0.49893196</v>
       </c>
       <c r="H258" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9190,7 +9199,7 @@
         <v>0.50051723</v>
       </c>
       <c r="H259" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9216,7 +9225,7 @@
         <v>0.5000239</v>
       </c>
       <c r="H260" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9242,7 +9251,7 @@
         <v>0.49917934</v>
       </c>
       <c r="H261" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9268,7 +9277,7 @@
         <v>0.4974827</v>
       </c>
       <c r="H262" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9294,7 +9303,7 @@
         <v>0.4958455</v>
       </c>
       <c r="H263" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9320,7 +9329,7 @@
         <v>0.4967832</v>
       </c>
       <c r="H264" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9346,7 +9355,7 @@
         <v>0.49890144</v>
       </c>
       <c r="H265" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9372,7 +9381,7 @@
         <v>0.4968885</v>
       </c>
       <c r="H266" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9398,7 +9407,7 @@
         <v>0.49763306</v>
       </c>
       <c r="H267" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9424,7 +9433,7 @@
         <v>0.49784664</v>
       </c>
       <c r="H268" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9450,7 +9459,7 @@
         <v>0.4986022</v>
       </c>
       <c r="H269" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9476,7 +9485,7 @@
         <v>0.50230225</v>
       </c>
       <c r="H270" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9502,7 +9511,7 @@
         <v>0.49931877</v>
       </c>
       <c r="H271" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9528,7 +9537,7 @@
         <v>0.49504326</v>
       </c>
       <c r="H272" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9554,7 +9563,7 @@
         <v>0.4984075</v>
       </c>
       <c r="H273" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9580,7 +9589,7 @@
         <v>0.4961782</v>
       </c>
       <c r="H274" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9606,7 +9615,7 @@
         <v>0.49861305</v>
       </c>
       <c r="H275" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9632,7 +9641,7 @@
         <v>0.497705</v>
       </c>
       <c r="H276" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9658,7 +9667,7 @@
         <v>0.49910454</v>
       </c>
       <c r="H277" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9684,7 +9693,7 @@
         <v>0.49703976</v>
       </c>
       <c r="H278" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9710,7 +9719,7 @@
         <v>0.49766933</v>
       </c>
       <c r="H279" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9736,7 +9745,7 @@
         <v>0.499015</v>
       </c>
       <c r="H280" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9762,7 +9771,7 @@
         <v>0.5042179999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9788,7 +9797,7 @@
         <v>0.5018745</v>
       </c>
       <c r="H282" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9814,7 +9823,7 @@
         <v>0.4990719</v>
       </c>
       <c r="H283" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9840,7 +9849,7 @@
         <v>0.5060797</v>
       </c>
       <c r="H284" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9866,7 +9875,7 @@
         <v>0.5003932600000001</v>
       </c>
       <c r="H285" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9892,7 +9901,7 @@
         <v>0.5097769</v>
       </c>
       <c r="H286" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9918,7 +9927,7 @@
         <v>0.5023913600000001</v>
       </c>
       <c r="H287" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9944,7 +9953,7 @@
         <v>0.5029641</v>
       </c>
       <c r="H288" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9970,7 +9979,7 @@
         <v>0.50207367</v>
       </c>
       <c r="H289" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9996,7 +10005,7 @@
         <v>0.52162315</v>
       </c>
       <c r="H290" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10022,7 +10031,7 @@
         <v>0.50041176</v>
       </c>
       <c r="H291" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10048,7 +10057,7 @@
         <v>0.5036107</v>
       </c>
       <c r="H292" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10074,7 +10083,7 @@
         <v>0.502314</v>
       </c>
       <c r="H293" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10100,7 +10109,7 @@
         <v>0.5006424700000001</v>
       </c>
       <c r="H294" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10126,7 +10135,7 @@
         <v>0.49840965</v>
       </c>
       <c r="H295" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10152,7 +10161,7 @@
         <v>0.4984031</v>
       </c>
       <c r="H296" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10178,7 +10187,7 @@
         <v>0.5008481</v>
       </c>
       <c r="H297" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10204,7 +10213,7 @@
         <v>0.4993976</v>
       </c>
       <c r="H298" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10230,7 +10239,7 @@
         <v>0.50698803</v>
       </c>
       <c r="H299" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10256,7 +10265,7 @@
         <v>0.49812584</v>
       </c>
       <c r="H300" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10282,7 +10291,7 @@
         <v>0.49974</v>
       </c>
       <c r="H301" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10308,7 +10317,7 @@
         <v>0.499807</v>
       </c>
       <c r="H302" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10334,7 +10343,7 @@
         <v>0.49594513</v>
       </c>
       <c r="H303" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10360,7 +10369,7 @@
         <v>0.49617283</v>
       </c>
       <c r="H304" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10386,7 +10395,7 @@
         <v>0.49940704</v>
       </c>
       <c r="H305" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10412,7 +10421,7 @@
         <v>0.5016344500000001</v>
       </c>
       <c r="H306" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10438,7 +10447,7 @@
         <v>0.4984803</v>
       </c>
       <c r="H307" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10464,7 +10473,7 @@
         <v>0.49767418</v>
       </c>
       <c r="H308" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10490,7 +10499,7 @@
         <v>0.49320786</v>
       </c>
       <c r="H309" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10516,7 +10525,7 @@
         <v>0.49895912</v>
       </c>
       <c r="H310" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10542,7 +10551,7 @@
         <v>0.50431873</v>
       </c>
       <c r="H311" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10568,7 +10577,7 @@
         <v>0.52608753</v>
       </c>
       <c r="H312" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10594,7 +10603,7 @@
         <v>0.51062157</v>
       </c>
       <c r="H313" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10620,7 +10629,7 @@
         <v>0.5174022699999999</v>
       </c>
       <c r="H314" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10646,7 +10655,7 @@
         <v>0.50072998</v>
       </c>
       <c r="H315" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10672,7 +10681,7 @@
         <v>0.49634537</v>
       </c>
       <c r="H316" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10698,7 +10707,7 @@
         <v>0.50292515</v>
       </c>
       <c r="H317" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10724,7 +10733,7 @@
         <v>0.51383675</v>
       </c>
       <c r="H318" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10750,7 +10759,7 @@
         <v>0.5005653</v>
       </c>
       <c r="H319" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10776,7 +10785,7 @@
         <v>0.50101387</v>
       </c>
       <c r="H320" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10802,7 +10811,7 @@
         <v>0.500486</v>
       </c>
       <c r="H321" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10828,7 +10837,7 @@
         <v>0.50747902</v>
       </c>
       <c r="H322" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10854,7 +10863,7 @@
         <v>0.51234497</v>
       </c>
       <c r="H323" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10880,7 +10889,7 @@
         <v>0.5077758</v>
       </c>
       <c r="H324" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10906,7 +10915,7 @@
         <v>0.50599205</v>
       </c>
       <c r="H325" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10932,7 +10941,7 @@
         <v>0.51034492</v>
       </c>
       <c r="H326" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10958,7 +10967,7 @@
         <v>0.5026729</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10984,7 +10993,7 @@
         <v>0.50750988</v>
       </c>
       <c r="H328" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11010,7 +11019,7 @@
         <v>0.5079926300000001</v>
       </c>
       <c r="H329" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11036,7 +11045,7 @@
         <v>0.50714516</v>
       </c>
       <c r="H330" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11062,7 +11071,7 @@
         <v>0.5116143000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11088,7 +11097,7 @@
         <v>0.51543526</v>
       </c>
       <c r="H332" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11114,7 +11123,7 @@
         <v>0.508985</v>
       </c>
       <c r="H333" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11140,7 +11149,7 @@
         <v>0.5054162</v>
       </c>
       <c r="H334" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11166,7 +11175,7 @@
         <v>0.5043063999999999</v>
       </c>
       <c r="H335" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11192,7 +11201,7 @@
         <v>0.51462006</v>
       </c>
       <c r="H336" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11218,7 +11227,7 @@
         <v>0.49861763</v>
       </c>
       <c r="H337" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11244,7 +11253,7 @@
         <v>0.50211754</v>
       </c>
       <c r="H338" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11270,7 +11279,7 @@
         <v>0.5052490199999999</v>
       </c>
       <c r="H339" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11296,7 +11305,7 @@
         <v>0.50194458</v>
       </c>
       <c r="H340" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11322,7 +11331,7 @@
         <v>0.50550426</v>
       </c>
       <c r="H341" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11348,7 +11357,7 @@
         <v>0.50310604</v>
       </c>
       <c r="H342" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11374,7 +11383,7 @@
         <v>0.5002211400000001</v>
       </c>
       <c r="H343" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11400,7 +11409,7 @@
         <v>0.50267994</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11426,7 +11435,7 @@
         <v>0.502694</v>
       </c>
       <c r="H345" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11452,7 +11461,7 @@
         <v>0.50994846</v>
       </c>
       <c r="H346" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11478,7 +11487,7 @@
         <v>0.4993192</v>
       </c>
       <c r="H347" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11504,7 +11513,7 @@
         <v>0.5018829300000001</v>
       </c>
       <c r="H348" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11530,7 +11539,7 @@
         <v>0.4981365</v>
       </c>
       <c r="H349" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11556,7 +11565,7 @@
         <v>0.49752514</v>
       </c>
       <c r="H350" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11582,7 +11591,7 @@
         <v>0.5009755</v>
       </c>
       <c r="H351" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11608,7 +11617,7 @@
         <v>0.5069196699999999</v>
       </c>
       <c r="H352" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11634,7 +11643,7 @@
         <v>0.50000793</v>
       </c>
       <c r="H353" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11660,7 +11669,7 @@
         <v>0.5103763</v>
       </c>
       <c r="H354" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11686,7 +11695,7 @@
         <v>0.49997017</v>
       </c>
       <c r="H355" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11712,7 +11721,7 @@
         <v>0.50635967</v>
       </c>
       <c r="H356" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11738,7 +11747,7 @@
         <v>0.51330666</v>
       </c>
       <c r="H357" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11764,7 +11773,7 @@
         <v>0.51462597</v>
       </c>
       <c r="H358" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11790,7 +11799,7 @@
         <v>0.52718254</v>
       </c>
       <c r="H359" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11816,7 +11825,7 @@
         <v>0.5179592000000001</v>
       </c>
       <c r="H360" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11842,7 +11851,7 @@
         <v>0.53005707</v>
       </c>
       <c r="H361" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11868,7 +11877,7 @@
         <v>0.52530243</v>
       </c>
       <c r="H362" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11894,7 +11903,7 @@
         <v>0.5202608</v>
       </c>
       <c r="H363" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11920,7 +11929,7 @@
         <v>0.52280983</v>
       </c>
       <c r="H364" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11946,7 +11955,7 @@
         <v>0.52739555</v>
       </c>
       <c r="H365" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11972,7 +11981,7 @@
         <v>0.53168663</v>
       </c>
       <c r="H366" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11998,7 +12007,7 @@
         <v>0.52896404</v>
       </c>
       <c r="H367" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12024,7 +12033,7 @@
         <v>0.5345465</v>
       </c>
       <c r="H368" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12050,7 +12059,7 @@
         <v>0.53051384</v>
       </c>
       <c r="H369" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12076,7 +12085,7 @@
         <v>0.5259733</v>
       </c>
       <c r="H370" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12102,7 +12111,7 @@
         <v>0.5325814</v>
       </c>
       <c r="H371" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12128,7 +12137,7 @@
         <v>0.5286858</v>
       </c>
       <c r="H372" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12154,7 +12163,7 @@
         <v>0.5250242000000001</v>
       </c>
       <c r="H373" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12180,7 +12189,7 @@
         <v>0.53178505</v>
       </c>
       <c r="H374" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12206,7 +12215,7 @@
         <v>0.5232003000000001</v>
       </c>
       <c r="H375" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12232,7 +12241,7 @@
         <v>0.5154302200000001</v>
       </c>
       <c r="H376" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12258,7 +12267,7 @@
         <v>0.5174647999999999</v>
       </c>
       <c r="H377" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12284,7 +12293,7 @@
         <v>0.5146256300000001</v>
       </c>
       <c r="H378" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12310,7 +12319,7 @@
         <v>0.52349884</v>
       </c>
       <c r="H379" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12336,7 +12345,7 @@
         <v>0.531556</v>
       </c>
       <c r="H380" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12362,7 +12371,7 @@
         <v>0.5186424000000001</v>
       </c>
       <c r="H381" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12388,7 +12397,7 @@
         <v>0.5283335</v>
       </c>
       <c r="H382" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12414,7 +12423,7 @@
         <v>0.54694195</v>
       </c>
       <c r="H383" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12440,7 +12449,7 @@
         <v>0.58307304</v>
       </c>
       <c r="H384" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12466,7 +12475,7 @@
         <v>0.5870197699999999</v>
       </c>
       <c r="H385" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12492,7 +12501,7 @@
         <v>0.56920937</v>
       </c>
       <c r="H386" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12518,7 +12527,7 @@
         <v>0.5814385</v>
       </c>
       <c r="H387" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12544,7 +12553,7 @@
         <v>0.553656</v>
       </c>
       <c r="H388" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12570,7 +12579,7 @@
         <v>0.5410697</v>
       </c>
       <c r="H389" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12596,7 +12605,7 @@
         <v>0.53614105</v>
       </c>
       <c r="H390" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12622,7 +12631,7 @@
         <v>0.52060535</v>
       </c>
       <c r="H391" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12648,7 +12657,7 @@
         <v>0.5315788</v>
       </c>
       <c r="H392" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12674,7 +12683,7 @@
         <v>0.5299492797851563</v>
       </c>
       <c r="H393" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12700,7 +12709,7 @@
         <v>0.531322021484375</v>
       </c>
       <c r="H394" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12726,7 +12735,7 @@
         <v>0.530709228515625</v>
       </c>
       <c r="H395" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12752,7 +12761,7 @@
         <v>0.5334449462890625</v>
       </c>
       <c r="H396" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12778,7 +12787,7 @@
         <v>0.5211296997070313</v>
       </c>
       <c r="H397" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12804,7 +12813,7 @@
         <v>0.5223598022460938</v>
       </c>
       <c r="H398" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12830,7 +12839,7 @@
         <v>0.5183058471679688</v>
       </c>
       <c r="H399" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12856,7 +12865,7 @@
         <v>0.5181436157226562</v>
       </c>
       <c r="H400" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12882,7 +12891,7 @@
         <v>0.5201575317382813</v>
       </c>
       <c r="H401" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12908,7 +12917,7 @@
         <v>0.5134326171875</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12934,7 +12943,7 @@
         <v>0.5151395263671875</v>
       </c>
       <c r="H403" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12960,7 +12969,7 @@
         <v>0.5038961181640625</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12986,7 +12995,7 @@
         <v>0.5012046508789062</v>
       </c>
       <c r="H405" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13012,7 +13021,7 @@
         <v>0.504473876953125</v>
       </c>
       <c r="H406" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13038,7 +13047,7 @@
         <v>0.5076093749999999</v>
       </c>
       <c r="H407" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13064,7 +13073,7 @@
         <v>0.50745849609375</v>
       </c>
       <c r="H408" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13090,7 +13099,7 @@
         <v>0.5096468505859375</v>
       </c>
       <c r="H409" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13116,7 +13125,7 @@
         <v>0.5077002258300781</v>
       </c>
       <c r="H410" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13142,7 +13151,7 @@
         <v>0.5059976196289062</v>
       </c>
       <c r="H411" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13168,7 +13177,7 @@
         <v>0.5093406982421875</v>
       </c>
       <c r="H412" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13194,7 +13203,7 @@
         <v>0.5070155639648438</v>
       </c>
       <c r="H413" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13220,7 +13229,7 @@
         <v>0.5072980041503906</v>
       </c>
       <c r="H414" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13246,7 +13255,7 @@
         <v>0.5063546447753906</v>
       </c>
       <c r="H415" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13272,7 +13281,7 @@
         <v>0.513299560546875</v>
       </c>
       <c r="H416" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13298,7 +13307,7 @@
         <v>0.5066356811523438</v>
       </c>
       <c r="H417" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13324,7 +13333,7 @@
         <v>0.5044871520996094</v>
       </c>
       <c r="H418" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13350,7 +13359,7 @@
         <v>0.5095310058593749</v>
       </c>
       <c r="H419" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13376,7 +13385,7 @@
         <v>0.5039234619140625</v>
       </c>
       <c r="H420" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13402,7 +13411,7 @@
         <v>0.5076558837890626</v>
       </c>
       <c r="H421" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13428,7 +13437,7 @@
         <v>0.5122182006835938</v>
       </c>
       <c r="H422" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13454,7 +13463,7 @@
         <v>0.5028195190429687</v>
       </c>
       <c r="H423" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13480,7 +13489,7 @@
         <v>0.506995849609375</v>
       </c>
       <c r="H424" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13506,7 +13515,7 @@
         <v>0.5023994140625</v>
       </c>
       <c r="H425" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13532,7 +13541,7 @@
         <v>0.5136787109374999</v>
       </c>
       <c r="H426" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13558,7 +13567,7 @@
         <v>0.5072329711914062</v>
       </c>
       <c r="H427" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13584,7 +13593,7 @@
         <v>0.5047551269531251</v>
       </c>
       <c r="H428" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13610,7 +13619,7 @@
         <v>0.5090043334960938</v>
       </c>
       <c r="H429" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13636,7 +13645,7 @@
         <v>0.5146651611328125</v>
       </c>
       <c r="H430" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13662,7 +13671,7 @@
         <v>0.5075025634765624</v>
       </c>
       <c r="H431" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13688,7 +13697,7 @@
         <v>0.5107609863281251</v>
       </c>
       <c r="H432" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13714,7 +13723,7 @@
         <v>0.5085604248046875</v>
       </c>
       <c r="H433" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13740,7 +13749,7 @@
         <v>0.5054867553710938</v>
       </c>
       <c r="H434" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13766,7 +13775,7 @@
         <v>0.5094819946289063</v>
       </c>
       <c r="H435" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13792,7 +13801,7 @@
         <v>0.5051644287109375</v>
       </c>
       <c r="H436" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13818,7 +13827,7 @@
         <v>0.5077028198242188</v>
       </c>
       <c r="H437" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13844,7 +13853,7 @@
         <v>0.5036242370605468</v>
       </c>
       <c r="H438" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13870,7 +13879,7 @@
         <v>0.5051720886230469</v>
       </c>
       <c r="H439" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13896,7 +13905,7 @@
         <v>0.5111532592773438</v>
       </c>
       <c r="H440" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13922,7 +13931,7 @@
         <v>0.5131083374023437</v>
       </c>
       <c r="H441" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13948,7 +13957,7 @@
         <v>0.5150688476562501</v>
       </c>
       <c r="H442" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13974,7 +13983,7 @@
         <v>0.5088772888183594</v>
       </c>
       <c r="H443" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14000,7 +14009,7 @@
         <v>0.5057179260253907</v>
       </c>
       <c r="H444" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14026,7 +14035,7 @@
         <v>0.5161413574218749</v>
       </c>
       <c r="H445" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14052,7 +14061,7 @@
         <v>0.5080547180175781</v>
       </c>
       <c r="H446" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14078,7 +14087,7 @@
         <v>0.505494873046875</v>
       </c>
       <c r="H447" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14104,7 +14113,7 @@
         <v>0.5066600341796875</v>
       </c>
       <c r="H448" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14130,7 +14139,7 @@
         <v>0.5044539489746094</v>
       </c>
       <c r="H449" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14156,7 +14165,7 @@
         <v>0.5042096557617187</v>
       </c>
       <c r="H450" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14182,7 +14191,7 @@
         <v>0.5033950500488281</v>
       </c>
       <c r="H451" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14208,7 +14217,7 @@
         <v>0.5110439453125</v>
       </c>
       <c r="H452" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14234,7 +14243,7 @@
         <v>0.5129097900390626</v>
       </c>
       <c r="H453" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14260,7 +14269,7 @@
         <v>0.5039243774414062</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14286,7 +14295,7 @@
         <v>0.5036022033691406</v>
       </c>
       <c r="H455" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14312,7 +14321,7 @@
         <v>0.5040607299804687</v>
       </c>
       <c r="H456" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14338,7 +14347,7 @@
         <v>0.5046742858886719</v>
       </c>
       <c r="H457" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14364,7 +14373,7 @@
         <v>0.5069313354492188</v>
       </c>
       <c r="H458" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14390,7 +14399,7 @@
         <v>0.5062457275390625</v>
       </c>
       <c r="H459" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14416,7 +14425,7 @@
         <v>0.504287841796875</v>
       </c>
       <c r="H460" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14442,7 +14451,7 @@
         <v>0.5074588012695312</v>
       </c>
       <c r="H461" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14468,7 +14477,7 @@
         <v>0.5084236145019532</v>
       </c>
       <c r="H462" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14494,7 +14503,7 @@
         <v>0.5097780151367188</v>
       </c>
       <c r="H463" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14520,7 +14529,7 @@
         <v>0.5190899047851563</v>
       </c>
       <c r="H464" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14546,7 +14555,7 @@
         <v>0.5313558349609375</v>
       </c>
       <c r="H465" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14572,7 +14581,7 @@
         <v>0.5095711364746094</v>
       </c>
       <c r="H466" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14598,7 +14607,7 @@
         <v>0.5063242797851563</v>
       </c>
       <c r="H467" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14624,7 +14633,7 @@
         <v>0.5068180847167969</v>
       </c>
       <c r="H468" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14650,7 +14659,7 @@
         <v>0.5055303649902343</v>
       </c>
       <c r="H469" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14676,7 +14685,7 @@
         <v>0.504162841796875</v>
       </c>
       <c r="H470" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14702,7 +14711,7 @@
         <v>0.5032564697265625</v>
       </c>
       <c r="H471" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14728,7 +14737,7 @@
         <v>0.50482666015625</v>
       </c>
       <c r="H472" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14754,7 +14763,7 @@
         <v>0.5034338989257813</v>
       </c>
       <c r="H473" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14780,7 +14789,7 @@
         <v>0.5041131591796875</v>
       </c>
       <c r="H474" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14806,7 +14815,7 @@
         <v>0.5074757690429688</v>
       </c>
       <c r="H475" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14832,7 +14841,7 @@
         <v>0.5014821166992188</v>
       </c>
       <c r="H476" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14858,7 +14867,7 @@
         <v>0.5082123413085937</v>
       </c>
       <c r="H477" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14884,7 +14893,7 @@
         <v>0.5144286499023437</v>
       </c>
       <c r="H478" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14910,7 +14919,7 @@
         <v>0.5009668579101563</v>
       </c>
       <c r="H479" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14936,7 +14945,7 @@
         <v>0.5103136596679687</v>
       </c>
       <c r="H480" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14962,7 +14971,7 @@
         <v>0.50043701171875</v>
       </c>
       <c r="H481" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14988,7 +14997,7 @@
         <v>0.5026909484863281</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15014,7 +15023,7 @@
         <v>0.5012975769042969</v>
       </c>
       <c r="H483" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15040,7 +15049,7 @@
         <v>0.5034027709960938</v>
       </c>
       <c r="H484" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15066,7 +15075,7 @@
         <v>0.5082168579101562</v>
       </c>
       <c r="H485" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15092,7 +15101,7 @@
         <v>0.5115106201171875</v>
       </c>
       <c r="H486" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15118,7 +15127,7 @@
         <v>0.5085456848144532</v>
       </c>
       <c r="H487" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15144,7 +15153,7 @@
         <v>0.5029267883300781</v>
       </c>
       <c r="H488" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15170,7 +15179,7 @@
         <v>0.5117706909179688</v>
       </c>
       <c r="H489" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15180,7 +15189,13 @@
       <c r="B490" t="s">
         <v>495</v>
       </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
       <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
         <v>1</v>
       </c>
       <c r="F490">
@@ -15190,7 +15205,79 @@
         <v>0.509527587890625</v>
       </c>
       <c r="H490" t="s">
-        <v>682</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>496</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0.4931302795410156</v>
+      </c>
+      <c r="G491">
+        <v>0.5068697204589844</v>
+      </c>
+      <c r="H491" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>497</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>0.485824462890625</v>
+      </c>
+      <c r="G492">
+        <v>0.514175537109375</v>
+      </c>
+      <c r="H492" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>498</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>0.4870563354492187</v>
+      </c>
+      <c r="G493">
+        <v>0.5129436645507812</v>
+      </c>
+      <c r="H493" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
